--- a/database/variables.xlsx
+++ b/database/variables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>From</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Priority</t>
+  </si>
+  <si>
+    <t>DeltaV</t>
   </si>
 </sst>
 </file>
@@ -383,13 +386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,10 +405,13 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -419,10 +425,13 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>-8.997611508726086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -436,10 +445,13 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>9.091594501837527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -453,10 +465,13 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>9.922001237051582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -470,277 +485,1728 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>-9.173586639299996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
+        <v>85</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>55.61410905632492</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>7.688432436577378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>84</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>21.39212952587323</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>9.761631246082112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>83</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>27.47328153876275</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-2.849090666128147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>82</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>65.51635305852322</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>-4.977471650607624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>81</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>125.34527733786</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>-6.51747307397954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>97.48165045238578</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>-8.997611508726086</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>79</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>83.93806825022166</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.3075910672977821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>78</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>153.2906476668273</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>8.87457506838099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>77</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>157.4434795483823</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>-9.066555147883014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>76</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>130.6551837801424</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>-9.985729630103604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>75</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>115.0149927912674</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>-9.441587341319638</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>74</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>81.50984846823394</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>-9.80038811274836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>73</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>56.92112784409279</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>9.679994948609966</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>72</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>52.87056089579049</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1.138016109165018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>71</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>99.31378041745127</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>9.091594501837527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>70</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>83.93806825022166</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.3075910672977821</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>69</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>134.1130434684868</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>-9.951088466004361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>68</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>146.3760108736166</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>9.928461510368614</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>67</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>153.6856107758996</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>8.657322785671253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>66</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>120.3158256333855</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>9.240203390928732</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>65</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>106.6904744621568</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>7.729338107803644</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>64</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>113.8728307713835</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>5.065429796489742</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>63</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>136.6961459347333</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.6290312679411898</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>62</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>225.5080730734612</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>9.922001237051582</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>61</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>153.2906476668273</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>8.87457506838099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>60</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>134.1130434684868</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>-9.951088466004361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>59</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>278.8180102515514</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>9.998849599008238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>58</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>274.0082546972795</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>9.726264279681429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>57</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>246.8142977182495</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>9.911554892142373</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>56</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>222.6802706533907</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>9.696492211296503</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>55</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>209.1598052736991</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>9.138398209440046</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>54</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>188.0224139550496</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>7.55525301541768</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>53</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>59.99485170197257</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>-9.173586639299996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>52</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>157.4434795483823</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>-9.066555147883014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>51</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>146.3760108736166</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>9.928461510368614</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>278.8180102515514</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>9.998849599008238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>49</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>60.69820368474902</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>-2.022838280976186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>44.49928492520202</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>-7.675311874653678</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>80.45856890920552</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>-7.813236657358384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>119.1445757037869</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>-7.35638827720582</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>181.2285761013569</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>-7.544629381380233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>55.61410905632492</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>7.688432436577378</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>43</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>130.6551837801424</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>-9.985729630103604</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>42</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>153.6856107758996</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>8.657322785671253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>41</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>274.0082546972795</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>9.726264279681429</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>40</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>60.69820368474902</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>-2.022838280976186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>39</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>37.87542048144899</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>5.775863006118925</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>38</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53">
+        <v>51.42056514782755</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>9.837682424254174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>37</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>78.31077616224204</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>-9.624360106436994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>36</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>137.946001756895</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>-9.021789498424482</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>35</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>21.39212952587323</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>9.761631246082112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>34</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>115.0149927912674</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>-9.441587341319638</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>33</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>120.3158256333855</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>9.240203390928732</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>32</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>246.8142977182495</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>9.911554892142373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>31</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>44.49928492520202</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>-7.675311874653678</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>30</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>37.87542048144899</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>5.775863006118925</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>29</v>
+      </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <v>35.98294094206815</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>-7.978668293462129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>28</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <v>74.72832321066869</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>-7.158301525005042</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>27</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>136.7412586568919</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>-7.501441482075321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>26</v>
+      </c>
+      <c r="B65">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>27.47328153876275</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>-2.849090666128147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>25</v>
+      </c>
+      <c r="B66">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>81.50984846823394</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>-9.80038811274836</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>24</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>106.6904744621568</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>7.729338107803644</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>23</v>
+      </c>
+      <c r="B68">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>222.6802706533907</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>9.696492211296503</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>22</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>80.45856890920552</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>-7.813236657358384</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>21</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>51.42056514782755</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>9.837682424254174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>20</v>
+      </c>
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>7</v>
+      </c>
+      <c r="D71">
+        <v>35.98294094206815</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>-7.978668293462129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>19</v>
+      </c>
+      <c r="B72">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>9</v>
+      </c>
+      <c r="D72">
+        <v>39.29115282727717</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>-6.307575679681936</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>18</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>100.8972198095841</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>-7.320921244351625</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>17</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>65.51635305852322</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>-4.977471650607624</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>16</v>
+      </c>
+      <c r="B75">
+        <v>9</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>56.92112784409279</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>9.679994948609966</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
         <v>15</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>97.48165045238578</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
+      <c r="B76">
+        <v>9</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>113.8728307713835</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>5.065429796489742</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
         <v>14</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>209.1598052736991</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>9.138398209440046</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>13</v>
+      </c>
+      <c r="B78">
+        <v>9</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>119.1445757037869</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>-7.35638827720582</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>12</v>
+      </c>
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>78.31077616224204</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>-9.624360106436994</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>11</v>
+      </c>
+      <c r="B80">
+        <v>9</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>74.72832321066869</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>-7.158301525005042</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>10</v>
+      </c>
+      <c r="B81">
+        <v>9</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>39.29115282727717</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>-6.307575679681936</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>9</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>62.22238341422698</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>-7.888297636116816</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>125.34527733786</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>-6.51747307397954</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>7</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>52.87056089579049</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>1.138016109165018</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>6</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
         <v>3</v>
       </c>
-      <c r="D7">
-        <v>83.93806825022166</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
+      <c r="D85">
+        <v>136.6961459347333</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>0.6290312679411898</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>153.2906476668273</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
+      <c r="D86">
+        <v>188.0224139550496</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>7.55525301541768</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
         <v>5</v>
       </c>
-      <c r="D9">
-        <v>157.4434795483823</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>11</v>
-      </c>
-      <c r="B10">
+      <c r="D87">
+        <v>181.2285761013569</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>-7.544629381380233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
         <v>3</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>99.31378041745127</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
+      <c r="B88">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>83.93806825022166</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
+      <c r="C88">
+        <v>6</v>
+      </c>
+      <c r="D88">
+        <v>137.946001756895</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>-9.021789498424482</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+      <c r="D89">
+        <v>136.7412586568919</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>-7.501441482075321</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <v>100.8972198095841</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>-7.320921244351625</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>134.1130434684868</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>146.3760108736166</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>225.5080730734612</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>153.2906476668273</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>134.1130434684868</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>278.8180102515514</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>59.99485170197257</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>157.4434795483823</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>146.3760108736166</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>278.8180102515514</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
+      <c r="D91">
+        <v>62.22238341422698</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <v>-7.888297636116816</v>
       </c>
     </row>
   </sheetData>

--- a/database/variables.xlsx
+++ b/database/variables.xlsx
@@ -426,7 +426,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-8.997611508726086</v>
+        <v>-24.9933653020169</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -446,7 +446,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>9.091594501837527</v>
+        <v>25.25442917177091</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9.922001237051582</v>
+        <v>27.5611145473655</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-9.173586639299996</v>
+        <v>-25.48218510916666</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>7.688432436577378</v>
+        <v>21.35675676827049</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>9.761631246082112</v>
+        <v>27.11564235022809</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2.849090666128147</v>
+        <v>-7.914140739244854</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-4.977471650607624</v>
+        <v>-13.82631014057673</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-6.51747307397954</v>
+        <v>-18.10409187216539</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-8.997611508726086</v>
+        <v>-24.9933653020169</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3075910672977821</v>
+        <v>0.8544196313827281</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>8.87457506838099</v>
+        <v>24.65159741216942</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-9.066555147883014</v>
+        <v>-25.18487541078614</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-9.985729630103604</v>
+        <v>-27.7381378613989</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-9.441587341319638</v>
+        <v>-26.22663150366566</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-9.80038811274836</v>
+        <v>-27.22330031318989</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.679994948609966</v>
+        <v>26.88887485724991</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.138016109165018</v>
+        <v>3.161155858791717</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.091594501837527</v>
+        <v>25.25442917177091</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.3075910672977821</v>
+        <v>0.8544196313827281</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>-9.951088466004361</v>
+        <v>-27.64191240556767</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>9.928461510368614</v>
+        <v>27.57905975102393</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>8.657322785671253</v>
+        <v>24.04811884908682</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>9.240203390928732</v>
+        <v>25.6672316414687</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>7.729338107803644</v>
+        <v>21.4703836327879</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>5.065429796489742</v>
+        <v>14.07063832358262</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.6290312679411898</v>
+        <v>1.747309077614416</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>9.922001237051582</v>
+        <v>27.5611145473655</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>8.87457506838099</v>
+        <v>24.65159741216942</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-9.951088466004361</v>
+        <v>-27.64191240556767</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>9.998849599008238</v>
+        <v>27.77458221946733</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>9.726264279681429</v>
+        <v>27.01740077689285</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>9.911554892142373</v>
+        <v>27.5320969226177</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>9.696492211296503</v>
+        <v>26.93470058693473</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>9.138398209440046</v>
+        <v>25.38443947066679</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>7.55525301541768</v>
+        <v>20.98681393171578</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-9.173586639299996</v>
+        <v>-25.48218510916666</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-9.066555147883014</v>
+        <v>-25.18487541078614</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>9.928461510368614</v>
+        <v>27.57905975102393</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>9.998849599008238</v>
+        <v>27.77458221946733</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>-2.022838280976186</v>
+        <v>-5.618995224933848</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-7.675311874653678</v>
+        <v>-21.32031076292688</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-7.813236657358384</v>
+        <v>-21.70343515932884</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>-7.35638827720582</v>
+        <v>-20.43441188112728</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-7.544629381380233</v>
+        <v>-20.95730383716731</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>7.688432436577378</v>
+        <v>21.35675676827049</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>-9.985729630103604</v>
+        <v>-27.7381378613989</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>8.657322785671253</v>
+        <v>24.04811884908682</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>9.726264279681429</v>
+        <v>27.01740077689285</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>-2.022838280976186</v>
+        <v>-5.618995224933848</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>5.775863006118925</v>
+        <v>16.0440639058859</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>9.837682424254174</v>
+        <v>27.32689562292826</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>-9.624360106436994</v>
+        <v>-26.73433362899165</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>-9.021789498424482</v>
+        <v>-25.06052638451245</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>9.761631246082112</v>
+        <v>27.11564235022809</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>-9.441587341319638</v>
+        <v>-26.22663150366566</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="F58">
-        <v>9.240203390928732</v>
+        <v>25.6672316414687</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>9.911554892142373</v>
+        <v>27.5320969226177</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>-7.675311874653678</v>
+        <v>-21.32031076292688</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>5.775863006118925</v>
+        <v>16.0440639058859</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>-7.978668293462129</v>
+        <v>-22.16296748183925</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>-7.158301525005042</v>
+        <v>-19.88417090279178</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>-7.501441482075321</v>
+        <v>-20.83733745020922</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="F65">
-        <v>-2.849090666128147</v>
+        <v>-7.914140739244854</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="F66">
-        <v>-9.80038811274836</v>
+        <v>-27.22330031318989</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>7.729338107803644</v>
+        <v>21.4703836327879</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>9.696492211296503</v>
+        <v>26.93470058693473</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="F69">
-        <v>-7.813236657358384</v>
+        <v>-21.70343515932884</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <v>9.837682424254174</v>
+        <v>27.32689562292826</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>-7.978668293462129</v>
+        <v>-22.16296748183925</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>-6.307575679681936</v>
+        <v>-17.52104355467204</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>-7.320921244351625</v>
+        <v>-20.33589234542118</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <v>-4.977471650607624</v>
+        <v>-13.82631014057673</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="F75">
-        <v>9.679994948609966</v>
+        <v>26.88887485724991</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>2</v>
       </c>
       <c r="F76">
-        <v>5.065429796489742</v>
+        <v>14.07063832358262</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="F77">
-        <v>9.138398209440046</v>
+        <v>25.38443947066679</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>2</v>
       </c>
       <c r="F78">
-        <v>-7.35638827720582</v>
+        <v>-20.43441188112728</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="F79">
-        <v>-9.624360106436994</v>
+        <v>-26.73433362899165</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="F80">
-        <v>-7.158301525005042</v>
+        <v>-19.88417090279178</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>2</v>
       </c>
       <c r="F81">
-        <v>-6.307575679681936</v>
+        <v>-17.52104355467204</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="F82">
-        <v>-7.888297636116816</v>
+        <v>-21.91193787810227</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="F83">
-        <v>-6.51747307397954</v>
+        <v>-18.10409187216539</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="F84">
-        <v>1.138016109165018</v>
+        <v>3.161155858791717</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>2</v>
       </c>
       <c r="F85">
-        <v>0.6290312679411898</v>
+        <v>1.747309077614416</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="F86">
-        <v>7.55525301541768</v>
+        <v>20.98681393171578</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>2</v>
       </c>
       <c r="F87">
-        <v>-7.544629381380233</v>
+        <v>-20.95730383716731</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>2</v>
       </c>
       <c r="F88">
-        <v>-9.021789498424482</v>
+        <v>-25.06052638451245</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>2</v>
       </c>
       <c r="F89">
-        <v>-7.501441482075321</v>
+        <v>-20.83733745020922</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>2</v>
       </c>
       <c r="F90">
-        <v>-7.320921244351625</v>
+        <v>-20.33589234542118</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="F91">
-        <v>-7.888297636116816</v>
+        <v>-21.91193787810227</v>
       </c>
     </row>
   </sheetData>

--- a/database/variables.xlsx
+++ b/database/variables.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,7 +411,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -426,12 +426,12 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-24.9933653020169</v>
+        <v>-2.499336530201691</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -446,12 +446,12 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>25.25442917177091</v>
+        <v>2.525442917177091</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -466,12 +466,12 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.5611145473655</v>
+        <v>2.75611145473655</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -486,12 +486,12 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-25.48218510916666</v>
+        <v>-2.548218510916666</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -506,12 +506,12 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.35675676827049</v>
+        <v>2.135675676827049</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -526,12 +526,12 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.11564235022809</v>
+        <v>2.711564235022809</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -546,12 +546,12 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-7.914140739244854</v>
+        <v>-0.7914140739244853</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -566,1647 +566,1287 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-13.82631014057673</v>
+        <v>-1.382631014057673</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
       <c r="D10">
-        <v>125.34527733786</v>
+        <v>97.48165045238578</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-18.10409187216539</v>
+        <v>-2.499336530201691</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>97.48165045238578</v>
+        <v>83.93806825022166</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-24.9933653020169</v>
+        <v>0.08544196313827281</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>83.93806825022166</v>
+        <v>153.2906476668273</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8544196313827281</v>
+        <v>2.465159741216941</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>153.2906476668273</v>
+        <v>157.4434795483823</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.65159741216942</v>
+        <v>-2.518487541078615</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>157.4434795483823</v>
+        <v>130.6551837801424</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-25.18487541078614</v>
+        <v>-2.77381378613989</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>130.6551837801424</v>
+        <v>115.0149927912674</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-27.7381378613989</v>
+        <v>-2.622663150366566</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>115.0149927912674</v>
+        <v>81.50984846823394</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-26.22663150366566</v>
+        <v>-2.722330031318989</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>81.50984846823394</v>
+        <v>56.92112784409279</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-27.22330031318989</v>
+        <v>2.688887485724991</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>56.92112784409279</v>
+        <v>99.31378041745127</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.88887485724991</v>
+        <v>2.525442917177091</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
         <v>2</v>
       </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
       <c r="D19">
-        <v>52.87056089579049</v>
+        <v>83.93806825022166</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.161155858791717</v>
+        <v>0.08544196313827281</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>99.31378041745127</v>
+        <v>134.1130434684868</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>25.25442917177091</v>
+        <v>-2.764191240556767</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>83.93806825022166</v>
+        <v>146.3760108736166</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8544196313827281</v>
+        <v>2.757905975102393</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>134.1130434684868</v>
+        <v>153.6856107758996</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>-27.64191240556767</v>
+        <v>2.404811884908681</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>146.3760108736166</v>
+        <v>120.3158256333855</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.57905975102393</v>
+        <v>2.56672316414687</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>153.6856107758996</v>
+        <v>106.6904744621568</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.04811884908682</v>
+        <v>2.14703836327879</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>120.3158256333855</v>
+        <v>113.8728307713835</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.6672316414687</v>
+        <v>1.407063832358262</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>106.6904744621568</v>
+        <v>225.5080730734612</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>21.4703836327879</v>
+        <v>2.75611145473655</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>113.8728307713835</v>
+        <v>153.2906476668273</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>14.07063832358262</v>
+        <v>2.465159741216941</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
         <v>3</v>
       </c>
-      <c r="C28">
-        <v>10</v>
-      </c>
       <c r="D28">
-        <v>136.6961459347333</v>
+        <v>134.1130434684868</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.747309077614416</v>
+        <v>-2.764191240556767</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>225.5080730734612</v>
+        <v>278.8180102515514</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>27.5611145473655</v>
+        <v>2.777458221946733</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>153.2906476668273</v>
+        <v>274.0082546972795</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>24.65159741216942</v>
+        <v>2.701740077689286</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>134.1130434684868</v>
+        <v>246.8142977182495</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-27.64191240556767</v>
+        <v>2.75320969226177</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D32">
-        <v>278.8180102515514</v>
+        <v>222.6802706533907</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>27.77458221946733</v>
+        <v>2.693470058693473</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D33">
-        <v>274.0082546972795</v>
+        <v>209.1598052736991</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>27.01740077689285</v>
+        <v>2.538443947066679</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>246.8142977182495</v>
+        <v>59.99485170197257</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>27.5320969226177</v>
+        <v>-2.548218510916666</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>222.6802706533907</v>
+        <v>157.4434795483823</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>26.93470058693473</v>
+        <v>-2.518487541078615</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>209.1598052736991</v>
+        <v>146.3760108736166</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>25.38443947066679</v>
+        <v>2.757905975102393</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
         <v>4</v>
       </c>
-      <c r="C37">
-        <v>10</v>
-      </c>
       <c r="D37">
-        <v>188.0224139550496</v>
+        <v>278.8180102515514</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>20.98681393171578</v>
+        <v>2.777458221946733</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>59.99485170197257</v>
+        <v>60.69820368474902</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-25.48218510916666</v>
+        <v>-0.5618995224933848</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D39">
-        <v>157.4434795483823</v>
+        <v>44.49928492520202</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-25.18487541078614</v>
+        <v>-2.132031076292688</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D40">
-        <v>146.3760108736166</v>
+        <v>80.45856890920552</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>27.57905975102393</v>
+        <v>-2.170343515932884</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D41">
-        <v>278.8180102515514</v>
+        <v>119.1445757037869</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>27.77458221946733</v>
+        <v>-2.043441188112728</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>60.69820368474902</v>
+        <v>55.61410905632492</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>-5.618995224933848</v>
+        <v>2.135675676827049</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>44.49928492520202</v>
+        <v>130.6551837801424</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-21.32031076292688</v>
+        <v>-2.77381378613989</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>80.45856890920552</v>
+        <v>153.6856107758996</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-21.70343515932884</v>
+        <v>2.404811884908681</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>119.1445757037869</v>
+        <v>274.0082546972795</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>-20.43441188112728</v>
+        <v>2.701740077689286</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46">
         <v>5</v>
       </c>
-      <c r="C46">
-        <v>10</v>
-      </c>
       <c r="D46">
-        <v>181.2285761013569</v>
+        <v>60.69820368474902</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-20.95730383716731</v>
+        <v>-0.5618995224933848</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D47">
-        <v>55.61410905632492</v>
+        <v>37.87542048144899</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>21.35675676827049</v>
+        <v>1.60440639058859</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D48">
-        <v>130.6551837801424</v>
+        <v>51.42056514782755</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>-27.7381378613989</v>
+        <v>2.732689562292826</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D49">
-        <v>153.6856107758996</v>
+        <v>78.31077616224204</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>24.04811884908682</v>
+        <v>-2.673433362899165</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>274.0082546972795</v>
+        <v>21.39212952587323</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>27.01740077689285</v>
+        <v>2.711564235022809</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>60.69820368474902</v>
+        <v>115.0149927912674</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>-5.618995224933848</v>
+        <v>-2.622663150366566</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D52">
-        <v>37.87542048144899</v>
+        <v>120.3158256333855</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>16.0440639058859</v>
+        <v>2.56672316414687</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D53">
-        <v>51.42056514782755</v>
+        <v>246.8142977182495</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>27.32689562292826</v>
+        <v>2.75320969226177</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D54">
-        <v>78.31077616224204</v>
+        <v>44.49928492520202</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>-26.73433362899165</v>
+        <v>-2.132031076292688</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55">
         <v>6</v>
       </c>
-      <c r="C55">
-        <v>10</v>
-      </c>
       <c r="D55">
-        <v>137.946001756895</v>
+        <v>37.87542048144899</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>-25.06052638451245</v>
+        <v>1.60440639058859</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B56">
         <v>7</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D56">
-        <v>21.39212952587323</v>
+        <v>35.98294094206815</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>27.11564235022809</v>
+        <v>-2.216296748183925</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B57">
         <v>7</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D57">
-        <v>115.0149927912674</v>
+        <v>74.72832321066869</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>-26.22663150366566</v>
+        <v>-1.988417090279178</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>120.3158256333855</v>
+        <v>27.47328153876275</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>25.6672316414687</v>
+        <v>-0.7914140739244853</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>246.8142977182495</v>
+        <v>81.50984846823394</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>27.5320969226177</v>
+        <v>-2.722330031318989</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B60">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60">
-        <v>44.49928492520202</v>
+        <v>106.6904744621568</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>-21.32031076292688</v>
+        <v>2.14703836327879</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D61">
-        <v>37.87542048144899</v>
+        <v>222.6802706533907</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>16.0440639058859</v>
+        <v>2.693470058693473</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D62">
-        <v>35.98294094206815</v>
+        <v>80.45856890920552</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>-22.16296748183925</v>
+        <v>-2.170343515932884</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D63">
-        <v>74.72832321066869</v>
+        <v>51.42056514782755</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>-19.88417090279178</v>
+        <v>2.732689562292826</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64">
         <v>7</v>
       </c>
-      <c r="C64">
-        <v>10</v>
-      </c>
       <c r="D64">
-        <v>136.7412586568919</v>
+        <v>35.98294094206815</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>-20.83733745020922</v>
+        <v>-2.216296748183925</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B65">
         <v>8</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D65">
-        <v>27.47328153876275</v>
+        <v>39.29115282727717</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>-7.914140739244854</v>
+        <v>-1.752104355467204</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>81.50984846823394</v>
+        <v>65.51635305852322</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>-27.22330031318989</v>
+        <v>-1.382631014057673</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>106.6904744621568</v>
+        <v>56.92112784409279</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>21.4703836327879</v>
+        <v>2.688887485724991</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68">
-        <v>222.6802706533907</v>
+        <v>113.8728307713835</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>26.93470058693473</v>
+        <v>1.407063832358262</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69">
-        <v>80.45856890920552</v>
+        <v>209.1598052736991</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>-21.70343515932884</v>
+        <v>2.538443947066679</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D70">
-        <v>51.42056514782755</v>
+        <v>119.1445757037869</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>27.32689562292826</v>
+        <v>-2.043441188112728</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B71">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D71">
-        <v>35.98294094206815</v>
+        <v>78.31077616224204</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>-22.16296748183925</v>
+        <v>-2.673433362899165</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D72">
-        <v>39.29115282727717</v>
+        <v>74.72832321066869</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>-17.52104355467204</v>
+        <v>-1.988417090279178</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73">
         <v>8</v>
       </c>
-      <c r="C73">
-        <v>10</v>
-      </c>
       <c r="D73">
-        <v>100.8972198095841</v>
+        <v>39.29115282727717</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>-20.33589234542118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1">
-        <v>17</v>
-      </c>
-      <c r="B74">
-        <v>9</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>65.51635305852322</v>
-      </c>
-      <c r="E74">
-        <v>2</v>
-      </c>
-      <c r="F74">
-        <v>-13.82631014057673</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1">
-        <v>16</v>
-      </c>
-      <c r="B75">
-        <v>9</v>
-      </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-      <c r="D75">
-        <v>56.92112784409279</v>
-      </c>
-      <c r="E75">
-        <v>2</v>
-      </c>
-      <c r="F75">
-        <v>26.88887485724991</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1">
-        <v>15</v>
-      </c>
-      <c r="B76">
-        <v>9</v>
-      </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="D76">
-        <v>113.8728307713835</v>
-      </c>
-      <c r="E76">
-        <v>2</v>
-      </c>
-      <c r="F76">
-        <v>14.07063832358262</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1">
-        <v>14</v>
-      </c>
-      <c r="B77">
-        <v>9</v>
-      </c>
-      <c r="C77">
-        <v>4</v>
-      </c>
-      <c r="D77">
-        <v>209.1598052736991</v>
-      </c>
-      <c r="E77">
-        <v>2</v>
-      </c>
-      <c r="F77">
-        <v>25.38443947066679</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1">
-        <v>13</v>
-      </c>
-      <c r="B78">
-        <v>9</v>
-      </c>
-      <c r="C78">
-        <v>5</v>
-      </c>
-      <c r="D78">
-        <v>119.1445757037869</v>
-      </c>
-      <c r="E78">
-        <v>2</v>
-      </c>
-      <c r="F78">
-        <v>-20.43441188112728</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1">
-        <v>12</v>
-      </c>
-      <c r="B79">
-        <v>9</v>
-      </c>
-      <c r="C79">
-        <v>6</v>
-      </c>
-      <c r="D79">
-        <v>78.31077616224204</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
-      </c>
-      <c r="F79">
-        <v>-26.73433362899165</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1">
-        <v>11</v>
-      </c>
-      <c r="B80">
-        <v>9</v>
-      </c>
-      <c r="C80">
-        <v>7</v>
-      </c>
-      <c r="D80">
-        <v>74.72832321066869</v>
-      </c>
-      <c r="E80">
-        <v>2</v>
-      </c>
-      <c r="F80">
-        <v>-19.88417090279178</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1">
-        <v>10</v>
-      </c>
-      <c r="B81">
-        <v>9</v>
-      </c>
-      <c r="C81">
-        <v>8</v>
-      </c>
-      <c r="D81">
-        <v>39.29115282727717</v>
-      </c>
-      <c r="E81">
-        <v>2</v>
-      </c>
-      <c r="F81">
-        <v>-17.52104355467204</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1">
-        <v>9</v>
-      </c>
-      <c r="B82">
-        <v>9</v>
-      </c>
-      <c r="C82">
-        <v>10</v>
-      </c>
-      <c r="D82">
-        <v>62.22238341422698</v>
-      </c>
-      <c r="E82">
-        <v>2</v>
-      </c>
-      <c r="F82">
-        <v>-21.91193787810227</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1">
-        <v>8</v>
-      </c>
-      <c r="B83">
-        <v>10</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>125.34527733786</v>
-      </c>
-      <c r="E83">
-        <v>2</v>
-      </c>
-      <c r="F83">
-        <v>-18.10409187216539</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1">
-        <v>7</v>
-      </c>
-      <c r="B84">
-        <v>10</v>
-      </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-      <c r="D84">
-        <v>52.87056089579049</v>
-      </c>
-      <c r="E84">
-        <v>2</v>
-      </c>
-      <c r="F84">
-        <v>3.161155858791717</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="1">
-        <v>6</v>
-      </c>
-      <c r="B85">
-        <v>10</v>
-      </c>
-      <c r="C85">
-        <v>3</v>
-      </c>
-      <c r="D85">
-        <v>136.6961459347333</v>
-      </c>
-      <c r="E85">
-        <v>2</v>
-      </c>
-      <c r="F85">
-        <v>1.747309077614416</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="1">
-        <v>5</v>
-      </c>
-      <c r="B86">
-        <v>10</v>
-      </c>
-      <c r="C86">
-        <v>4</v>
-      </c>
-      <c r="D86">
-        <v>188.0224139550496</v>
-      </c>
-      <c r="E86">
-        <v>2</v>
-      </c>
-      <c r="F86">
-        <v>20.98681393171578</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1">
-        <v>4</v>
-      </c>
-      <c r="B87">
-        <v>10</v>
-      </c>
-      <c r="C87">
-        <v>5</v>
-      </c>
-      <c r="D87">
-        <v>181.2285761013569</v>
-      </c>
-      <c r="E87">
-        <v>2</v>
-      </c>
-      <c r="F87">
-        <v>-20.95730383716731</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1">
-        <v>3</v>
-      </c>
-      <c r="B88">
-        <v>10</v>
-      </c>
-      <c r="C88">
-        <v>6</v>
-      </c>
-      <c r="D88">
-        <v>137.946001756895</v>
-      </c>
-      <c r="E88">
-        <v>2</v>
-      </c>
-      <c r="F88">
-        <v>-25.06052638451245</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1">
-        <v>2</v>
-      </c>
-      <c r="B89">
-        <v>10</v>
-      </c>
-      <c r="C89">
-        <v>7</v>
-      </c>
-      <c r="D89">
-        <v>136.7412586568919</v>
-      </c>
-      <c r="E89">
-        <v>2</v>
-      </c>
-      <c r="F89">
-        <v>-20.83733745020922</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1">
-        <v>1</v>
-      </c>
-      <c r="B90">
-        <v>10</v>
-      </c>
-      <c r="C90">
-        <v>8</v>
-      </c>
-      <c r="D90">
-        <v>100.8972198095841</v>
-      </c>
-      <c r="E90">
-        <v>2</v>
-      </c>
-      <c r="F90">
-        <v>-20.33589234542118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1">
-        <v>0</v>
-      </c>
-      <c r="B91">
-        <v>10</v>
-      </c>
-      <c r="C91">
-        <v>9</v>
-      </c>
-      <c r="D91">
-        <v>62.22238341422698</v>
-      </c>
-      <c r="E91">
-        <v>2</v>
-      </c>
-      <c r="F91">
-        <v>-21.91193787810227</v>
+        <v>-1.752104355467204</v>
       </c>
     </row>
   </sheetData>

--- a/database/variables.xlsx
+++ b/database/variables.xlsx
@@ -467,7 +467,7 @@
         <v>1.414213562373095</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -487,7 +487,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>6.082762530298219</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -587,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>6.082762530298219</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>6.082762530298219</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>

--- a/database/variables.xlsx
+++ b/database/variables.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,7 +395,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -404,7 +404,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.414213562373095</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -415,7 +415,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.414213562373095</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -455,19 +455,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.414213562373095</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -475,19 +475,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -495,19 +495,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>6.082762530298219</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -515,16 +515,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1.414213562373095</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -535,16 +535,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -555,16 +555,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>6.082762530298219</v>
+        <v>6.708203932499369</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -575,19 +575,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>6.708203932499369</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -595,19 +595,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>6.082762530298219</v>
+        <v>3.605551275463989</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -615,21 +615,621 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
+        <v>7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.605551275463989</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B14" t="n">
         <v>3</v>
       </c>
-      <c r="D13" t="n">
-        <v>6.082762530298219</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.605551275463989</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.605551275463989</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6.708203932499369</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6.708203932499369</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6.708203932499369</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.605551275463989</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6.708203932499369</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.605551275463989</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6</v>
+      </c>
+      <c r="D30" t="n">
+        <v>8</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3.605551275463989</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6.708203932499369</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>8</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B39" t="n">
+        <v>7</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3.605551275463989</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="n">
+        <v>7</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6.708203932499369</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" t="n">
+        <v>7</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4</v>
+      </c>
+      <c r="D41" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="n">
+        <v>7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>7</v>
+      </c>
+      <c r="C43" t="n">
+        <v>6</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="n">
         <v>0</v>
       </c>
     </row>

--- a/database/variables.xlsx
+++ b/database/variables.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,7 +411,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -420,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>143.3233100371274</v>
+        <v>165.2196279073648</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -431,7 +431,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -440,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>96.05188597835827</v>
+        <v>175.2863011911021</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -451,7 +451,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -460,7 +460,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>207.0707900694825</v>
+        <v>232.987996352889</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -480,7 +480,7 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>67.47795678120077</v>
+        <v>283.2013630953935</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -500,7 +500,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>131.702873691975</v>
+        <v>212.7919215448701</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -520,7 +520,7 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>103.0241848853902</v>
+        <v>193.4359934414632</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>236.920119599919</v>
+        <v>175.3426239362893</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -560,7 +560,7 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>46.29191356412916</v>
+        <v>138.482351996002</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -580,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>83.78813276770968</v>
+        <v>93.47687832521298</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>47.99960086898591</v>
+        <v>69.72099248287329</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>71.9887638753855</v>
+        <v>58.10667450423578</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -631,16 +631,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>109.3247590540119</v>
+        <v>165.2196279073648</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -651,16 +651,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>143.3233100371274</v>
+        <v>96.33467096199571</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -671,16 +671,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>93.34565442483026</v>
+        <v>121.812725733379</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -691,16 +691,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>199.1854716087496</v>
+        <v>175.525191889209</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -711,16 +711,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>92.60423292574301</v>
+        <v>62.44450113396672</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -731,16 +731,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>80.04577021682233</v>
+        <v>87.21854171616371</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -751,16 +751,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>150.2160340118801</v>
+        <v>148.4770002727048</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -771,16 +771,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>231.8817314666236</v>
+        <v>81.32813627114759</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -791,16 +791,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>144.5590566355086</v>
+        <v>72.50659770173041</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -811,16 +811,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>91.81490374519383</v>
+        <v>229.6863842014571</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -831,16 +831,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>102.3546100494819</v>
+        <v>213.8348914445764</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -851,16 +851,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>71.3380410231871</v>
+        <v>175.2863011911021</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -871,16 +871,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>38.53455363875525</v>
+        <v>96.33467096199571</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -891,16 +891,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>96.05188597835827</v>
+        <v>58.54103501055654</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -911,16 +911,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>93.34565442483026</v>
+        <v>108.2737918631363</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -931,16 +931,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>128.2278226439178</v>
+        <v>77.75842513266481</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -951,16 +951,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>31.11620954045959</v>
+        <v>26.49243615657642</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -971,16 +971,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>37.94157593570414</v>
+        <v>57.54399500258653</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -991,16 +991,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>56.88077616575653</v>
+        <v>37.87073092433855</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1011,16 +1011,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>161.273264556404</v>
+        <v>102.4228694441747</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1031,16 +1031,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>127.0092713358704</v>
+        <v>244.726255985816</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1051,16 +1051,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>112.7475935298831</v>
+        <v>201.759835065755</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1071,16 +1071,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>88.28096635845179</v>
+        <v>232.987996352889</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1091,16 +1091,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>61.41284020256997</v>
+        <v>121.812725733379</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1111,16 +1111,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
         <v>3</v>
       </c>
-      <c r="C37">
-        <v>13</v>
-      </c>
       <c r="D37">
-        <v>57.71298680590407</v>
+        <v>58.54103501055654</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1131,16 +1131,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B38">
         <v>4</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>207.0707900694825</v>
+        <v>55.10713878191084</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1151,16 +1151,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B39">
         <v>4</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>199.1854716087496</v>
+        <v>70.73861991823914</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1171,16 +1171,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B40">
         <v>4</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D40">
-        <v>128.2278226439178</v>
+        <v>41.29784107397153</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1191,16 +1191,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B41">
         <v>4</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D41">
-        <v>156.7186851407513</v>
+        <v>95.44284268816818</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1211,16 +1211,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B42">
         <v>4</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D42">
-        <v>120.1512903744485</v>
+        <v>94.51772234180511</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1231,16 +1231,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D43">
-        <v>105.4248668507528</v>
+        <v>153.5011944683577</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1251,16 +1251,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B44">
         <v>4</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D44">
-        <v>33.38970998556224</v>
+        <v>302.6209374146798</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1271,16 +1271,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B45">
         <v>4</v>
       </c>
       <c r="C45">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45">
-        <v>247.7876671257245</v>
+        <v>260.1549499282424</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1291,19 +1291,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>240.9697301930265</v>
+        <v>283.2013630953935</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1311,19 +1311,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>214.5056415323901</v>
+        <v>175.525191889209</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1331,19 +1331,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>189.58988526756</v>
+        <v>108.2737918631363</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1351,19 +1351,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
         <v>4</v>
       </c>
-      <c r="C49">
-        <v>13</v>
-      </c>
       <c r="D49">
-        <v>175.815035497874</v>
+        <v>55.10713878191084</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1371,19 +1371,19 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B50">
         <v>5</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D50">
-        <v>67.47795678120077</v>
+        <v>119.1445757037869</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1391,19 +1391,19 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B51">
         <v>5</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D51">
-        <v>92.60423292574301</v>
+        <v>95.90524628686219</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1411,19 +1411,19 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B52">
         <v>5</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>31.11620954045959</v>
+        <v>125.642641388176</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1431,19 +1431,19 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B53">
         <v>5</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D53">
-        <v>156.7186851407513</v>
+        <v>145.9827487106895</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1451,19 +1451,19 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B54">
         <v>5</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D54">
-        <v>64.32297271313958</v>
+        <v>207.7145004863497</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1471,19 +1471,19 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B55">
         <v>5</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D55">
-        <v>69.2326715753897</v>
+        <v>352.3290649619132</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1491,19 +1491,19 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B56">
         <v>5</v>
       </c>
       <c r="C56">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D56">
-        <v>189.2536398719443</v>
+        <v>304.9798013153437</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1511,16 +1511,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>95.90524628686219</v>
+        <v>212.7919215448701</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1531,16 +1531,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>86.23671240158725</v>
+        <v>62.44450113396672</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1551,16 +1551,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D59">
-        <v>57.96179296199851</v>
+        <v>77.75842513266481</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1571,16 +1571,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D60">
-        <v>37.46159798669627</v>
+        <v>70.73861991823914</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1591,16 +1591,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
         <v>5</v>
       </c>
-      <c r="C61">
-        <v>13</v>
-      </c>
       <c r="D61">
-        <v>54.10717404453629</v>
+        <v>119.1445757037869</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1611,16 +1611,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B62">
         <v>6</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D62">
-        <v>131.702873691975</v>
+        <v>54.10717404453629</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1631,16 +1631,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B63">
         <v>6</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D63">
-        <v>80.04577021682233</v>
+        <v>134.9128083959701</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1651,16 +1651,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D64">
-        <v>37.94157593570414</v>
+        <v>90.03614762849955</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1671,16 +1671,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B65">
         <v>6</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>120.1512903744485</v>
+        <v>120.7492380253909</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1691,16 +1691,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B66">
         <v>6</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D66">
-        <v>64.32297271313958</v>
+        <v>280.896820570524</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1711,16 +1711,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>6</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D67">
-        <v>83.93806825022166</v>
+        <v>253.570450384182</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1731,16 +1731,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>153.2906476668273</v>
+        <v>193.4359934414632</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1751,16 +1751,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>157.4434795483823</v>
+        <v>87.21854171616371</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1771,16 +1771,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C70">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D70">
-        <v>130.6551837801424</v>
+        <v>26.49243615657642</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1791,16 +1791,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D71">
-        <v>115.0149927912674</v>
+        <v>41.29784107397153</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1811,16 +1811,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C72">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>81.50984846823394</v>
+        <v>95.90524628686219</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1831,16 +1831,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73">
         <v>6</v>
       </c>
-      <c r="C73">
-        <v>13</v>
-      </c>
       <c r="D73">
-        <v>56.92112784409279</v>
+        <v>54.10717404453629</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1851,16 +1851,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B74">
         <v>7</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D74">
-        <v>103.0241848853902</v>
+        <v>81.44198948248008</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1871,16 +1871,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B75">
         <v>7</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D75">
-        <v>150.2160340118801</v>
+        <v>55.50208134650391</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1891,16 +1891,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B76">
         <v>7</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D76">
-        <v>56.88077616575653</v>
+        <v>112.2038680587839</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1911,16 +1911,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B77">
         <v>7</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D77">
-        <v>105.4248668507528</v>
+        <v>263.1569413751739</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1931,16 +1931,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B78">
         <v>7</v>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D78">
-        <v>69.2326715753897</v>
+        <v>224.2070112118353</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1951,19 +1951,19 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B79">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>83.93806825022166</v>
+        <v>175.3426239362893</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -1971,19 +1971,19 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B80">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>134.1130434684868</v>
+        <v>148.4770002727048</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -1991,19 +1991,19 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D81">
-        <v>146.3760108736166</v>
+        <v>57.54399500258653</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2011,19 +2011,19 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D82">
-        <v>153.6856107758996</v>
+        <v>95.44284268816818</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2031,19 +2031,19 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B83">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D83">
-        <v>120.3158256333855</v>
+        <v>125.642641388176</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2051,19 +2051,19 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B84">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D84">
-        <v>106.6904744621568</v>
+        <v>134.9128083959701</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2071,19 +2071,19 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B85">
+        <v>8</v>
+      </c>
+      <c r="C85">
         <v>7</v>
       </c>
-      <c r="C85">
-        <v>13</v>
-      </c>
       <c r="D85">
-        <v>113.8728307713835</v>
+        <v>81.44198948248008</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2091,19 +2091,19 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B86">
         <v>8</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D86">
-        <v>236.920119599919</v>
+        <v>70.36003083174874</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2111,19 +2111,19 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B87">
         <v>8</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D87">
-        <v>231.8817314666236</v>
+        <v>130.4671905305881</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2131,19 +2131,19 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B88">
         <v>8</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D88">
-        <v>161.273264556404</v>
+        <v>240.3536776283722</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2151,19 +2151,19 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B89">
         <v>8</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D89">
-        <v>33.38970998556224</v>
+        <v>184.7476479924431</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2171,19 +2171,19 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B90">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>189.2536398719443</v>
+        <v>138.482351996002</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2191,19 +2191,19 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B91">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D91">
-        <v>153.2906476668273</v>
+        <v>81.32813627114759</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2211,19 +2211,19 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B92">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D92">
-        <v>134.1130434684868</v>
+        <v>37.87073092433855</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2231,19 +2231,19 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B93">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D93">
-        <v>278.8180102515514</v>
+        <v>94.51772234180511</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2251,19 +2251,19 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B94">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D94">
-        <v>274.0082546972795</v>
+        <v>145.9827487106895</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2271,19 +2271,19 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B95">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D95">
-        <v>246.8142977182495</v>
+        <v>90.03614762849955</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2291,19 +2291,19 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D96">
-        <v>222.6802706533907</v>
+        <v>55.50208134650391</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2311,19 +2311,19 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B97">
+        <v>9</v>
+      </c>
+      <c r="C97">
         <v>8</v>
       </c>
-      <c r="C97">
-        <v>13</v>
-      </c>
       <c r="D97">
-        <v>209.1598052736991</v>
+        <v>70.36003083174874</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2331,19 +2331,19 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B98">
         <v>9</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D98">
-        <v>46.29191356412916</v>
+        <v>66.11045580644067</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2351,19 +2351,19 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B99">
         <v>9</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D99">
-        <v>144.5590566355086</v>
+        <v>208.1479543814655</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2371,19 +2371,19 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B100">
         <v>9</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D100">
-        <v>127.0092713358704</v>
+        <v>169.220035254078</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2391,16 +2391,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B101">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>247.7876671257245</v>
+        <v>93.47687832521298</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -2411,16 +2411,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B102">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>95.90524628686219</v>
+        <v>72.50659770173041</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -2431,16 +2431,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B103">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C103">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D103">
-        <v>157.4434795483823</v>
+        <v>102.4228694441747</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -2451,16 +2451,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B104">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C104">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D104">
-        <v>146.3760108736166</v>
+        <v>153.5011944683577</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -2471,16 +2471,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B105">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C105">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D105">
-        <v>278.8180102515514</v>
+        <v>207.7145004863497</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -2491,16 +2491,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B106">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C106">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D106">
-        <v>60.69820368474902</v>
+        <v>120.7492380253909</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -2511,16 +2511,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B107">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C107">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D107">
-        <v>44.49928492520202</v>
+        <v>112.2038680587839</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -2531,16 +2531,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B108">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C108">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D108">
-        <v>80.45856890920552</v>
+        <v>130.4671905305881</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -2551,16 +2551,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B109">
+        <v>10</v>
+      </c>
+      <c r="C109">
         <v>9</v>
       </c>
-      <c r="C109">
-        <v>13</v>
-      </c>
       <c r="D109">
-        <v>119.1445757037869</v>
+        <v>66.11045580644067</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -2571,16 +2571,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B110">
         <v>10</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D110">
-        <v>83.78813276770968</v>
+        <v>160.3233118404126</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -2591,16 +2591,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B111">
         <v>10</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D111">
-        <v>91.81490374519383</v>
+        <v>141.5289680215618</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -2611,19 +2611,19 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B112">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>112.7475935298831</v>
+        <v>69.72099248287329</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -2631,19 +2631,19 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B113">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>240.9697301930265</v>
+        <v>229.6863842014571</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -2651,19 +2651,19 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B114">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C114">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D114">
-        <v>86.23671240158725</v>
+        <v>244.726255985816</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -2671,19 +2671,19 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B115">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D115">
-        <v>130.6551837801424</v>
+        <v>302.6209374146798</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -2691,19 +2691,19 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B116">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C116">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D116">
-        <v>153.6856107758996</v>
+        <v>352.3290649619132</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -2711,19 +2711,19 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B117">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C117">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D117">
-        <v>274.0082546972795</v>
+        <v>280.896820570524</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2731,19 +2731,19 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B118">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C118">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D118">
-        <v>60.69820368474902</v>
+        <v>263.1569413751739</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -2751,19 +2751,19 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B119">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C119">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D119">
-        <v>37.87542048144899</v>
+        <v>240.3536776283722</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -2771,19 +2771,19 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B120">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C120">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120">
-        <v>51.42056514782755</v>
+        <v>208.1479543814655</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -2791,19 +2791,19 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B121">
+        <v>11</v>
+      </c>
+      <c r="C121">
         <v>10</v>
       </c>
-      <c r="C121">
-        <v>13</v>
-      </c>
       <c r="D121">
-        <v>78.31077616224204</v>
+        <v>160.3233118404126</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -2811,19 +2811,19 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B122">
         <v>11</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D122">
-        <v>47.99960086898591</v>
+        <v>69.3731342716392</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -2831,16 +2831,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B123">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>102.3546100494819</v>
+        <v>58.10667450423578</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -2851,16 +2851,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B124">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D124">
-        <v>88.28096635845179</v>
+        <v>213.8348914445764</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -2871,16 +2871,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B125">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D125">
-        <v>214.5056415323901</v>
+        <v>201.759835065755</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -2891,16 +2891,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B126">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D126">
-        <v>57.96179296199851</v>
+        <v>260.1549499282424</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -2911,16 +2911,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B127">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C127">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D127">
-        <v>115.0149927912674</v>
+        <v>304.9798013153437</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -2931,16 +2931,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B128">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D128">
-        <v>120.3158256333855</v>
+        <v>253.570450384182</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -2951,16 +2951,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B129">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C129">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D129">
-        <v>246.8142977182495</v>
+        <v>224.2070112118353</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -2971,16 +2971,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B130">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C130">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D130">
-        <v>44.49928492520202</v>
+        <v>184.7476479924431</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -2991,16 +2991,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B131">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C131">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D131">
-        <v>37.87542048144899</v>
+        <v>169.220035254078</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -3011,16 +3011,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B132">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C132">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D132">
-        <v>35.98294094206815</v>
+        <v>141.5289680215618</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -3031,501 +3031,21 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B133">
+        <v>12</v>
+      </c>
+      <c r="C133">
         <v>11</v>
       </c>
-      <c r="C133">
-        <v>13</v>
-      </c>
       <c r="D133">
-        <v>74.72832321066869</v>
+        <v>69.3731342716392</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
       <c r="F133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1">
-        <v>23</v>
-      </c>
-      <c r="B134">
-        <v>12</v>
-      </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-      <c r="D134">
-        <v>71.9887638753855</v>
-      </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1">
-        <v>22</v>
-      </c>
-      <c r="B135">
-        <v>12</v>
-      </c>
-      <c r="C135">
-        <v>2</v>
-      </c>
-      <c r="D135">
-        <v>71.3380410231871</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1">
-        <v>21</v>
-      </c>
-      <c r="B136">
-        <v>12</v>
-      </c>
-      <c r="C136">
-        <v>3</v>
-      </c>
-      <c r="D136">
-        <v>61.41284020256997</v>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="1">
-        <v>20</v>
-      </c>
-      <c r="B137">
-        <v>12</v>
-      </c>
-      <c r="C137">
-        <v>4</v>
-      </c>
-      <c r="D137">
-        <v>189.58988526756</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="1">
-        <v>19</v>
-      </c>
-      <c r="B138">
-        <v>12</v>
-      </c>
-      <c r="C138">
-        <v>5</v>
-      </c>
-      <c r="D138">
-        <v>37.46159798669627</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="1">
-        <v>18</v>
-      </c>
-      <c r="B139">
-        <v>12</v>
-      </c>
-      <c r="C139">
-        <v>6</v>
-      </c>
-      <c r="D139">
-        <v>81.50984846823394</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="1">
-        <v>17</v>
-      </c>
-      <c r="B140">
-        <v>12</v>
-      </c>
-      <c r="C140">
-        <v>7</v>
-      </c>
-      <c r="D140">
-        <v>106.6904744621568</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="1">
-        <v>16</v>
-      </c>
-      <c r="B141">
-        <v>12</v>
-      </c>
-      <c r="C141">
-        <v>8</v>
-      </c>
-      <c r="D141">
-        <v>222.6802706533907</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="1">
-        <v>15</v>
-      </c>
-      <c r="B142">
-        <v>12</v>
-      </c>
-      <c r="C142">
-        <v>9</v>
-      </c>
-      <c r="D142">
-        <v>80.45856890920552</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="1">
-        <v>14</v>
-      </c>
-      <c r="B143">
-        <v>12</v>
-      </c>
-      <c r="C143">
-        <v>10</v>
-      </c>
-      <c r="D143">
-        <v>51.42056514782755</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="1">
-        <v>13</v>
-      </c>
-      <c r="B144">
-        <v>12</v>
-      </c>
-      <c r="C144">
-        <v>11</v>
-      </c>
-      <c r="D144">
-        <v>35.98294094206815</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="1">
-        <v>12</v>
-      </c>
-      <c r="B145">
-        <v>12</v>
-      </c>
-      <c r="C145">
-        <v>13</v>
-      </c>
-      <c r="D145">
-        <v>39.29115282727717</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="1">
-        <v>11</v>
-      </c>
-      <c r="B146">
-        <v>13</v>
-      </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-      <c r="D146">
-        <v>109.3247590540119</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="1">
-        <v>10</v>
-      </c>
-      <c r="B147">
-        <v>13</v>
-      </c>
-      <c r="C147">
-        <v>2</v>
-      </c>
-      <c r="D147">
-        <v>38.53455363875525</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="1">
-        <v>9</v>
-      </c>
-      <c r="B148">
-        <v>13</v>
-      </c>
-      <c r="C148">
-        <v>3</v>
-      </c>
-      <c r="D148">
-        <v>57.71298680590407</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="1">
-        <v>8</v>
-      </c>
-      <c r="B149">
-        <v>13</v>
-      </c>
-      <c r="C149">
-        <v>4</v>
-      </c>
-      <c r="D149">
-        <v>175.815035497874</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="1">
-        <v>7</v>
-      </c>
-      <c r="B150">
-        <v>13</v>
-      </c>
-      <c r="C150">
-        <v>5</v>
-      </c>
-      <c r="D150">
-        <v>54.10717404453629</v>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="1">
-        <v>6</v>
-      </c>
-      <c r="B151">
-        <v>13</v>
-      </c>
-      <c r="C151">
-        <v>6</v>
-      </c>
-      <c r="D151">
-        <v>56.92112784409279</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="1">
-        <v>5</v>
-      </c>
-      <c r="B152">
-        <v>13</v>
-      </c>
-      <c r="C152">
-        <v>7</v>
-      </c>
-      <c r="D152">
-        <v>113.8728307713835</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="1">
-        <v>4</v>
-      </c>
-      <c r="B153">
-        <v>13</v>
-      </c>
-      <c r="C153">
-        <v>8</v>
-      </c>
-      <c r="D153">
-        <v>209.1598052736991</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="1">
-        <v>3</v>
-      </c>
-      <c r="B154">
-        <v>13</v>
-      </c>
-      <c r="C154">
-        <v>9</v>
-      </c>
-      <c r="D154">
-        <v>119.1445757037869</v>
-      </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="1">
-        <v>2</v>
-      </c>
-      <c r="B155">
-        <v>13</v>
-      </c>
-      <c r="C155">
-        <v>10</v>
-      </c>
-      <c r="D155">
-        <v>78.31077616224204</v>
-      </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="1">
-        <v>1</v>
-      </c>
-      <c r="B156">
-        <v>13</v>
-      </c>
-      <c r="C156">
-        <v>11</v>
-      </c>
-      <c r="D156">
-        <v>74.72832321066869</v>
-      </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="1">
-        <v>0</v>
-      </c>
-      <c r="B157">
-        <v>13</v>
-      </c>
-      <c r="C157">
-        <v>12</v>
-      </c>
-      <c r="D157">
-        <v>39.29115282727717</v>
-      </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="F157">
         <v>0</v>
       </c>
     </row>

--- a/database/variables.xlsx
+++ b/database/variables.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,7 +411,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -420,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>165.2196279073648</v>
+        <v>80.19356351346165</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -431,7 +431,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>130</v>
+        <v>304</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -440,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>175.2863011911021</v>
+        <v>137.4897264235937</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -451,7 +451,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>129</v>
+        <v>303</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -460,7 +460,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>232.987996352889</v>
+        <v>130.8013396072968</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -480,7 +480,7 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>283.2013630953935</v>
+        <v>189.0909609576811</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>127</v>
+        <v>301</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -500,7 +500,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>212.7919215448701</v>
+        <v>238.0319600509513</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -520,7 +520,7 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>193.4359934414632</v>
+        <v>176.3727567813359</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>125</v>
+        <v>299</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>175.3426239362893</v>
+        <v>150.6999219800282</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>124</v>
+        <v>298</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -560,7 +560,7 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>138.482351996002</v>
+        <v>129.3207537043945</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>123</v>
+        <v>297</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -580,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>93.47687832521298</v>
+        <v>95.20760283584727</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>122</v>
+        <v>296</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>69.72099248287329</v>
+        <v>66.41328635685213</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>121</v>
+        <v>295</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>58.10667450423578</v>
+        <v>114.3336892356768</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -631,16 +631,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>120</v>
+        <v>294</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>165.2196279073648</v>
+        <v>77.47457462115945</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -651,16 +651,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>119</v>
+        <v>293</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>96.33467096199571</v>
+        <v>165.3213658207432</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -671,16 +671,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>118</v>
+        <v>292</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>121.812725733379</v>
+        <v>83.0368689617994</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -691,16 +691,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>175.525191889209</v>
+        <v>56.97992847997619</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -711,16 +711,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>116</v>
+        <v>290</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>62.44450113396672</v>
+        <v>41.76969456065987</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -731,16 +731,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>115</v>
+        <v>289</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>87.21854171616371</v>
+        <v>77.47457462115945</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -751,16 +751,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>114</v>
+        <v>288</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>148.4770002727048</v>
+        <v>80.19356351346165</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -771,16 +771,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>113</v>
+        <v>287</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>81.32813627114759</v>
+        <v>192.1760243153588</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -791,16 +791,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>112</v>
+        <v>286</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>72.50659770173041</v>
+        <v>208.9927253777825</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -811,16 +811,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>111</v>
+        <v>285</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>229.6863842014571</v>
+        <v>266.4364067982067</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -831,16 +831,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>110</v>
+        <v>284</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>213.8348914445764</v>
+        <v>317.0384236454702</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -851,16 +851,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>109</v>
+        <v>283</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>175.2863011911021</v>
+        <v>243.184773702745</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -871,16 +871,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>108</v>
+        <v>282</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>96.33467096199571</v>
+        <v>226.5406721266822</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -891,16 +891,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>58.54103501055654</v>
+        <v>208.8660367269037</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -911,16 +911,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>106</v>
+        <v>280</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>108.2737918631363</v>
+        <v>171.9297824091265</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -931,16 +931,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>105</v>
+        <v>279</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>77.75842513266481</v>
+        <v>122.5800579802334</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -951,16 +951,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>104</v>
+        <v>278</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>26.49243615657642</v>
+        <v>37.74488316826037</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -971,16 +971,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>103</v>
+        <v>277</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>57.54399500258653</v>
+        <v>61.69486051380367</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -991,16 +991,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>102</v>
+        <v>276</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>37.87073092433855</v>
+        <v>216.0262982833308</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1011,16 +1011,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>101</v>
+        <v>275</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>102.4228694441747</v>
+        <v>76.33524505114966</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1031,16 +1031,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>100</v>
+        <v>274</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>244.726255985816</v>
+        <v>23.21374301810194</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1051,16 +1051,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>201.759835065755</v>
+        <v>38.48202026312499</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1071,16 +1071,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>98</v>
+        <v>272</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>232.987996352889</v>
+        <v>61.69486051380367</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1091,16 +1091,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>97</v>
+        <v>271</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>121.812725733379</v>
+        <v>137.4897264235937</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1111,16 +1111,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>96</v>
+        <v>270</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>58.54103501055654</v>
+        <v>192.1760243153588</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1131,16 +1131,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>95</v>
+        <v>269</v>
       </c>
       <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
         <v>4</v>
       </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
       <c r="D38">
-        <v>55.10713878191084</v>
+        <v>96.33467096199571</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1151,16 +1151,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>94</v>
+        <v>268</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39">
-        <v>70.73861991823914</v>
+        <v>121.812725733379</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1171,16 +1171,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>93</v>
+        <v>267</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>41.29784107397153</v>
+        <v>175.525191889209</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1191,16 +1191,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>92</v>
+        <v>266</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41">
-        <v>95.44284268816818</v>
+        <v>62.44450113396672</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1211,16 +1211,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>91</v>
+        <v>265</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42">
-        <v>94.51772234180511</v>
+        <v>87.21854171616371</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1231,16 +1231,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>90</v>
+        <v>264</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D43">
-        <v>153.5011944683577</v>
+        <v>148.4770002727048</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1251,16 +1251,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>89</v>
+        <v>263</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44">
-        <v>302.6209374146798</v>
+        <v>81.32813627114759</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1271,16 +1271,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>88</v>
+        <v>262</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45">
-        <v>260.1549499282424</v>
+        <v>72.50659770173041</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1291,19 +1291,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D46">
-        <v>283.2013630953935</v>
+        <v>229.6863842014571</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1311,19 +1311,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>175.525191889209</v>
+        <v>213.8348914445764</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1331,19 +1331,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>85</v>
+        <v>259</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D48">
-        <v>108.2737918631363</v>
+        <v>28.66342844057766</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1351,19 +1351,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>84</v>
+        <v>258</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D49">
-        <v>55.10713878191084</v>
+        <v>128.4942268705437</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1371,19 +1371,19 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>83</v>
+        <v>257</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D50">
-        <v>119.1445757037869</v>
+        <v>174.368126891756</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1391,19 +1391,19 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>82</v>
+        <v>256</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D51">
-        <v>95.90524628686219</v>
+        <v>162.2582122453798</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1411,19 +1411,19 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D52">
-        <v>125.642641388176</v>
+        <v>213.8348914445764</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1431,19 +1431,19 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>145.9827487106895</v>
+        <v>130.8013396072968</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1451,19 +1451,19 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>207.7145004863497</v>
+        <v>208.9927253777825</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1471,19 +1471,19 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D55">
-        <v>352.3290649619132</v>
+        <v>96.33467096199571</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1491,19 +1491,19 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
         <v>5</v>
       </c>
-      <c r="C56">
-        <v>12</v>
-      </c>
       <c r="D56">
-        <v>304.9798013153437</v>
+        <v>58.54103501055654</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1511,16 +1511,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
         <v>6</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
       <c r="D57">
-        <v>212.7919215448701</v>
+        <v>108.2737918631363</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1531,16 +1531,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D58">
-        <v>62.44450113396672</v>
+        <v>77.75842513266481</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1551,16 +1551,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="B59">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D59">
-        <v>77.75842513266481</v>
+        <v>26.49243615657642</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1571,16 +1571,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D60">
-        <v>70.73861991823914</v>
+        <v>57.54399500258653</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1591,16 +1591,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D61">
-        <v>119.1445757037869</v>
+        <v>37.87073092433855</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1611,16 +1611,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>71</v>
+        <v>245</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D62">
-        <v>54.10717404453629</v>
+        <v>102.4228694441747</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1631,16 +1631,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>70</v>
+        <v>244</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D63">
-        <v>134.9128083959701</v>
+        <v>244.726255985816</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1651,16 +1651,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>69</v>
+        <v>243</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C64">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64">
-        <v>90.03614762849955</v>
+        <v>201.759835065755</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1671,16 +1671,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C65">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D65">
-        <v>120.7492380253909</v>
+        <v>116.8132507773591</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1691,16 +1691,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>67</v>
+        <v>241</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D66">
-        <v>280.896820570524</v>
+        <v>175.2534093201793</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1711,16 +1711,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D67">
-        <v>253.570450384182</v>
+        <v>186.1953156470137</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1731,16 +1731,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>65</v>
+        <v>239</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D68">
-        <v>193.4359934414632</v>
+        <v>170.9499458944211</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1751,16 +1751,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>64</v>
+        <v>238</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D69">
-        <v>87.21854171616371</v>
+        <v>201.759835065755</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1771,16 +1771,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>63</v>
+        <v>237</v>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>26.49243615657642</v>
+        <v>189.0909609576811</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1791,16 +1791,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>41.29784107397153</v>
+        <v>266.4364067982067</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1811,16 +1811,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>61</v>
+        <v>235</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72">
-        <v>95.90524628686219</v>
+        <v>121.812725733379</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1831,16 +1831,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>60</v>
+        <v>234</v>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C73">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D73">
-        <v>54.10717404453629</v>
+        <v>58.54103501055654</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1851,16 +1851,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>59</v>
+        <v>233</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D74">
-        <v>81.44198948248008</v>
+        <v>55.10713878191084</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1871,16 +1871,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>58</v>
+        <v>232</v>
       </c>
       <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
         <v>7</v>
       </c>
-      <c r="C75">
-        <v>9</v>
-      </c>
       <c r="D75">
-        <v>55.50208134650391</v>
+        <v>70.73861991823914</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1891,16 +1891,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>57</v>
+        <v>231</v>
       </c>
       <c r="B76">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C76">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D76">
-        <v>112.2038680587839</v>
+        <v>41.29784107397153</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1911,16 +1911,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>56</v>
+        <v>230</v>
       </c>
       <c r="B77">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C77">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D77">
-        <v>263.1569413751739</v>
+        <v>95.44284268816818</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1931,16 +1931,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="B78">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C78">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D78">
-        <v>224.2070112118353</v>
+        <v>94.51772234180511</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1951,19 +1951,19 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="B79">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D79">
-        <v>175.3426239362893</v>
+        <v>153.5011944683577</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -1971,19 +1971,19 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="B80">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D80">
-        <v>148.4770002727048</v>
+        <v>302.6209374146798</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -1991,19 +1991,19 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>52</v>
+        <v>226</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D81">
-        <v>57.54399500258653</v>
+        <v>260.1549499282424</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2011,19 +2011,19 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>51</v>
+        <v>225</v>
       </c>
       <c r="B82">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D82">
-        <v>95.44284268816818</v>
+        <v>130.6994898718191</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2031,19 +2031,19 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c r="B83">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D83">
-        <v>125.642641388176</v>
+        <v>226.5288746302768</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2051,19 +2051,19 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>49</v>
+        <v>223</v>
       </c>
       <c r="B84">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C84">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D84">
-        <v>134.9128083959701</v>
+        <v>243.8725418734953</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2071,19 +2071,19 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>48</v>
+        <v>222</v>
       </c>
       <c r="B85">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C85">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D85">
-        <v>81.44198948248008</v>
+        <v>228.7163260851011</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2091,19 +2091,19 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="B86">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D86">
-        <v>70.36003083174874</v>
+        <v>260.1549499282424</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2111,16 +2111,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="B87">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>130.4671905305881</v>
+        <v>238.0319600509513</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -2131,16 +2131,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c r="B88">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D88">
-        <v>240.3536776283722</v>
+        <v>317.0384236454702</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -2151,16 +2151,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="B89">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C89">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D89">
-        <v>184.7476479924431</v>
+        <v>175.525191889209</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -2171,19 +2171,19 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="B90">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D90">
-        <v>138.482351996002</v>
+        <v>108.2737918631363</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2191,19 +2191,19 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c r="B91">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91">
-        <v>81.32813627114759</v>
+        <v>55.10713878191084</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2211,19 +2211,19 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="B92">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D92">
-        <v>37.87073092433855</v>
+        <v>119.1445757037869</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2231,19 +2231,19 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="B93">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D93">
-        <v>94.51772234180511</v>
+        <v>95.90524628686219</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2251,19 +2251,19 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="B94">
+        <v>6</v>
+      </c>
+      <c r="C94">
         <v>9</v>
       </c>
-      <c r="C94">
-        <v>5</v>
-      </c>
       <c r="D94">
-        <v>145.9827487106895</v>
+        <v>125.642641388176</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2271,19 +2271,19 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="B95">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D95">
-        <v>90.03614762849955</v>
+        <v>145.9827487106895</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2291,19 +2291,19 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="B96">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D96">
-        <v>55.50208134650391</v>
+        <v>207.7145004863497</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2311,19 +2311,19 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="B97">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C97">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D97">
-        <v>70.36003083174874</v>
+        <v>352.3290649619132</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2331,19 +2331,19 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="B98">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C98">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D98">
-        <v>66.11045580644067</v>
+        <v>304.9798013153437</v>
       </c>
       <c r="E98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2351,19 +2351,19 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="B99">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C99">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D99">
-        <v>208.1479543814655</v>
+        <v>181.2285761013569</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2371,19 +2371,19 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>33</v>
+        <v>207</v>
       </c>
       <c r="B100">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C100">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D100">
-        <v>169.220035254078</v>
+        <v>280.9134716766823</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2391,19 +2391,19 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D101">
-        <v>93.47687832521298</v>
+        <v>294.1118719811059</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2411,19 +2411,19 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="B102">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D102">
-        <v>72.50659770173041</v>
+        <v>278.8180102515514</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -2431,19 +2431,19 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>30</v>
+        <v>204</v>
       </c>
       <c r="B103">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D103">
-        <v>102.4228694441747</v>
+        <v>304.9798013153437</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -2451,16 +2451,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="B104">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>153.5011944683577</v>
+        <v>176.3727567813359</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -2471,16 +2471,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="B105">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C105">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>207.7145004863497</v>
+        <v>243.184773702745</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -2491,16 +2491,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="B106">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C106">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D106">
-        <v>120.7492380253909</v>
+        <v>62.44450113396672</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -2511,16 +2511,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="B107">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C107">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D107">
-        <v>112.2038680587839</v>
+        <v>77.75842513266481</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -2531,16 +2531,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="B108">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C108">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D108">
-        <v>130.4671905305881</v>
+        <v>70.73861991823914</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -2551,16 +2551,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="B109">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C109">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D109">
-        <v>66.11045580644067</v>
+        <v>119.1445757037869</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -2571,16 +2571,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="B110">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C110">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D110">
-        <v>160.3233118404126</v>
+        <v>54.10717404453629</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -2591,16 +2591,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="B111">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C111">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111">
-        <v>141.5289680215618</v>
+        <v>134.9128083959701</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -2611,19 +2611,19 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="B112">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D112">
-        <v>69.72099248287329</v>
+        <v>90.03614762849955</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -2631,19 +2631,19 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="B113">
+        <v>7</v>
+      </c>
+      <c r="C113">
         <v>11</v>
       </c>
-      <c r="C113">
-        <v>2</v>
-      </c>
       <c r="D113">
-        <v>229.6863842014571</v>
+        <v>120.7492380253909</v>
       </c>
       <c r="E113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -2651,19 +2651,19 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="B114">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D114">
-        <v>244.726255985816</v>
+        <v>280.896820570524</v>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -2671,19 +2671,19 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="B115">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C115">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D115">
-        <v>302.6209374146798</v>
+        <v>253.570450384182</v>
       </c>
       <c r="E115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -2691,19 +2691,19 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="B116">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C116">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D116">
-        <v>352.3290649619132</v>
+        <v>62.22238341422698</v>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -2711,19 +2711,19 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="B117">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C117">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D117">
-        <v>280.896820570524</v>
+        <v>186.9934630137794</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2731,19 +2731,19 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c r="B118">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C118">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D118">
-        <v>263.1569413751739</v>
+        <v>222.9695790099614</v>
       </c>
       <c r="E118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -2751,19 +2751,19 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="B119">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D119">
-        <v>240.3536776283722</v>
+        <v>209.1598052736991</v>
       </c>
       <c r="E119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -2771,19 +2771,19 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B120">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C120">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D120">
-        <v>208.1479543814655</v>
+        <v>253.570450384182</v>
       </c>
       <c r="E120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -2791,19 +2791,19 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="B121">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C121">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>160.3233118404126</v>
+        <v>150.6999219800282</v>
       </c>
       <c r="E121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -2811,19 +2811,19 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="B122">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C122">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D122">
-        <v>69.3731342716392</v>
+        <v>226.5406721266822</v>
       </c>
       <c r="E122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -2831,16 +2831,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="B123">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D123">
-        <v>58.10667450423578</v>
+        <v>87.21854171616371</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -2851,16 +2851,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="B124">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D124">
-        <v>213.8348914445764</v>
+        <v>26.49243615657642</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -2871,16 +2871,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
+        <v>182</v>
+      </c>
+      <c r="B125">
         <v>8</v>
       </c>
-      <c r="B125">
-        <v>12</v>
-      </c>
       <c r="C125">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D125">
-        <v>201.759835065755</v>
+        <v>41.29784107397153</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -2891,16 +2891,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="B126">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D126">
-        <v>260.1549499282424</v>
+        <v>95.90524628686219</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -2911,16 +2911,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="B127">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C127">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D127">
-        <v>304.9798013153437</v>
+        <v>54.10717404453629</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -2931,16 +2931,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="B128">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C128">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D128">
-        <v>253.570450384182</v>
+        <v>81.44198948248008</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -2951,16 +2951,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="B129">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C129">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D129">
-        <v>224.2070112118353</v>
+        <v>55.50208134650391</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -2971,16 +2971,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="B130">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C130">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D130">
-        <v>184.7476479924431</v>
+        <v>112.2038680587839</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -2991,16 +2991,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>2</v>
+        <v>176</v>
       </c>
       <c r="B131">
+        <v>8</v>
+      </c>
+      <c r="C131">
         <v>12</v>
       </c>
-      <c r="C131">
-        <v>9</v>
-      </c>
       <c r="D131">
-        <v>169.220035254078</v>
+        <v>263.1569413751739</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -3011,16 +3011,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="B132">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C132">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D132">
-        <v>141.5289680215618</v>
+        <v>224.2070112118353</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -3031,21 +3031,3501 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="B133">
+        <v>8</v>
+      </c>
+      <c r="C133">
+        <v>14</v>
+      </c>
+      <c r="D133">
+        <v>102.4085320311252</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>173</v>
+      </c>
+      <c r="B134">
+        <v>8</v>
+      </c>
+      <c r="C134">
+        <v>15</v>
+      </c>
+      <c r="D134">
+        <v>185.2470275376128</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>172</v>
+      </c>
+      <c r="B135">
+        <v>8</v>
+      </c>
+      <c r="C135">
+        <v>16</v>
+      </c>
+      <c r="D135">
+        <v>204.262838265651</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
+        <v>171</v>
+      </c>
+      <c r="B136">
+        <v>8</v>
+      </c>
+      <c r="C136">
+        <v>17</v>
+      </c>
+      <c r="D136">
+        <v>189.2536398719443</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
+        <v>170</v>
+      </c>
+      <c r="B137">
+        <v>8</v>
+      </c>
+      <c r="C137">
+        <v>18</v>
+      </c>
+      <c r="D137">
+        <v>224.2070112118353</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
+        <v>169</v>
+      </c>
+      <c r="B138">
+        <v>9</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>129.3207537043945</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1">
+        <v>168</v>
+      </c>
+      <c r="B139">
+        <v>9</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>208.8660367269037</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
+        <v>167</v>
+      </c>
+      <c r="B140">
+        <v>9</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+      <c r="D140">
+        <v>148.4770002727048</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
+        <v>166</v>
+      </c>
+      <c r="B141">
+        <v>9</v>
+      </c>
+      <c r="C141">
+        <v>4</v>
+      </c>
+      <c r="D141">
+        <v>57.54399500258653</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
+        <v>165</v>
+      </c>
+      <c r="B142">
+        <v>9</v>
+      </c>
+      <c r="C142">
+        <v>5</v>
+      </c>
+      <c r="D142">
+        <v>95.44284268816818</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
+        <v>164</v>
+      </c>
+      <c r="B143">
+        <v>9</v>
+      </c>
+      <c r="C143">
+        <v>6</v>
+      </c>
+      <c r="D143">
+        <v>125.642641388176</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
+        <v>163</v>
+      </c>
+      <c r="B144">
+        <v>9</v>
+      </c>
+      <c r="C144">
+        <v>7</v>
+      </c>
+      <c r="D144">
+        <v>134.9128083959701</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
+        <v>162</v>
+      </c>
+      <c r="B145">
+        <v>9</v>
+      </c>
+      <c r="C145">
+        <v>8</v>
+      </c>
+      <c r="D145">
+        <v>81.44198948248008</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
+        <v>161</v>
+      </c>
+      <c r="B146">
+        <v>9</v>
+      </c>
+      <c r="C146">
+        <v>10</v>
+      </c>
+      <c r="D146">
+        <v>70.36003083174874</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
+        <v>160</v>
+      </c>
+      <c r="B147">
+        <v>9</v>
+      </c>
+      <c r="C147">
+        <v>11</v>
+      </c>
+      <c r="D147">
+        <v>130.4671905305881</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
+        <v>159</v>
+      </c>
+      <c r="B148">
+        <v>9</v>
+      </c>
+      <c r="C148">
         <v>12</v>
       </c>
-      <c r="C133">
+      <c r="D148">
+        <v>240.3536776283722</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
+        <v>158</v>
+      </c>
+      <c r="B149">
+        <v>9</v>
+      </c>
+      <c r="C149">
+        <v>13</v>
+      </c>
+      <c r="D149">
+        <v>184.7476479924431</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
+        <v>157</v>
+      </c>
+      <c r="B150">
+        <v>9</v>
+      </c>
+      <c r="C150">
+        <v>14</v>
+      </c>
+      <c r="D150">
+        <v>171.8634080960878</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
+        <v>156</v>
+      </c>
+      <c r="B151">
+        <v>9</v>
+      </c>
+      <c r="C151">
+        <v>15</v>
+      </c>
+      <c r="D151">
+        <v>195.9968732533477</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
+        <v>155</v>
+      </c>
+      <c r="B152">
+        <v>9</v>
+      </c>
+      <c r="C152">
+        <v>16</v>
+      </c>
+      <c r="D152">
+        <v>185.7760276550267</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
+        <v>154</v>
+      </c>
+      <c r="B153">
+        <v>9</v>
+      </c>
+      <c r="C153">
+        <v>17</v>
+      </c>
+      <c r="D153">
+        <v>170.8425318158178</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>9</v>
+      </c>
+      <c r="C154">
+        <v>18</v>
+      </c>
+      <c r="D154">
+        <v>184.7476479924431</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>152</v>
+      </c>
+      <c r="B155">
+        <v>10</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>95.20760283584727</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>151</v>
+      </c>
+      <c r="B156">
+        <v>10</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+      <c r="D156">
+        <v>171.9297824091265</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
+        <v>150</v>
+      </c>
+      <c r="B157">
+        <v>10</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+      <c r="D157">
+        <v>81.32813627114759</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
+        <v>149</v>
+      </c>
+      <c r="B158">
+        <v>10</v>
+      </c>
+      <c r="C158">
+        <v>4</v>
+      </c>
+      <c r="D158">
+        <v>37.87073092433855</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
+        <v>148</v>
+      </c>
+      <c r="B159">
+        <v>10</v>
+      </c>
+      <c r="C159">
+        <v>5</v>
+      </c>
+      <c r="D159">
+        <v>94.51772234180511</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
+        <v>147</v>
+      </c>
+      <c r="B160">
+        <v>10</v>
+      </c>
+      <c r="C160">
+        <v>6</v>
+      </c>
+      <c r="D160">
+        <v>145.9827487106895</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
+        <v>146</v>
+      </c>
+      <c r="B161">
+        <v>10</v>
+      </c>
+      <c r="C161">
+        <v>7</v>
+      </c>
+      <c r="D161">
+        <v>90.03614762849955</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
+        <v>145</v>
+      </c>
+      <c r="B162">
+        <v>10</v>
+      </c>
+      <c r="C162">
+        <v>8</v>
+      </c>
+      <c r="D162">
+        <v>55.50208134650391</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>144</v>
+      </c>
+      <c r="B163">
+        <v>10</v>
+      </c>
+      <c r="C163">
+        <v>9</v>
+      </c>
+      <c r="D163">
+        <v>70.36003083174874</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
+        <v>143</v>
+      </c>
+      <c r="B164">
+        <v>10</v>
+      </c>
+      <c r="C164">
         <v>11</v>
       </c>
-      <c r="D133">
+      <c r="D164">
+        <v>66.11045580644067</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
+        <v>142</v>
+      </c>
+      <c r="B165">
+        <v>10</v>
+      </c>
+      <c r="C165">
+        <v>12</v>
+      </c>
+      <c r="D165">
+        <v>208.1479543814655</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
+        <v>141</v>
+      </c>
+      <c r="B166">
+        <v>10</v>
+      </c>
+      <c r="C166">
+        <v>13</v>
+      </c>
+      <c r="D166">
+        <v>169.220035254078</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1">
+        <v>140</v>
+      </c>
+      <c r="B167">
+        <v>10</v>
+      </c>
+      <c r="C167">
+        <v>14</v>
+      </c>
+      <c r="D167">
+        <v>107.5819509640299</v>
+      </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1">
+        <v>139</v>
+      </c>
+      <c r="B168">
+        <v>10</v>
+      </c>
+      <c r="C168">
+        <v>15</v>
+      </c>
+      <c r="D168">
+        <v>138.0964545351179</v>
+      </c>
+      <c r="E168">
+        <v>2</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1">
+        <v>138</v>
+      </c>
+      <c r="B169">
+        <v>10</v>
+      </c>
+      <c r="C169">
+        <v>16</v>
+      </c>
+      <c r="D169">
+        <v>149.3611927444786</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
+        <v>137</v>
+      </c>
+      <c r="B170">
+        <v>10</v>
+      </c>
+      <c r="C170">
+        <v>17</v>
+      </c>
+      <c r="D170">
+        <v>134.2263411621672</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1">
+        <v>136</v>
+      </c>
+      <c r="B171">
+        <v>10</v>
+      </c>
+      <c r="C171">
+        <v>18</v>
+      </c>
+      <c r="D171">
+        <v>169.220035254078</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1">
+        <v>135</v>
+      </c>
+      <c r="B172">
+        <v>11</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>66.41328635685213</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
+        <v>134</v>
+      </c>
+      <c r="B173">
+        <v>11</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+      <c r="D173">
+        <v>122.5800579802334</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
+        <v>133</v>
+      </c>
+      <c r="B174">
+        <v>11</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+      <c r="D174">
+        <v>72.50659770173041</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
+        <v>132</v>
+      </c>
+      <c r="B175">
+        <v>11</v>
+      </c>
+      <c r="C175">
+        <v>4</v>
+      </c>
+      <c r="D175">
+        <v>102.4228694441747</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
+        <v>131</v>
+      </c>
+      <c r="B176">
+        <v>11</v>
+      </c>
+      <c r="C176">
+        <v>5</v>
+      </c>
+      <c r="D176">
+        <v>153.5011944683577</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
+        <v>130</v>
+      </c>
+      <c r="B177">
+        <v>11</v>
+      </c>
+      <c r="C177">
+        <v>6</v>
+      </c>
+      <c r="D177">
+        <v>207.7145004863497</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
+        <v>129</v>
+      </c>
+      <c r="B178">
+        <v>11</v>
+      </c>
+      <c r="C178">
+        <v>7</v>
+      </c>
+      <c r="D178">
+        <v>120.7492380253909</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1">
+        <v>128</v>
+      </c>
+      <c r="B179">
+        <v>11</v>
+      </c>
+      <c r="C179">
+        <v>8</v>
+      </c>
+      <c r="D179">
+        <v>112.2038680587839</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1">
+        <v>127</v>
+      </c>
+      <c r="B180">
+        <v>11</v>
+      </c>
+      <c r="C180">
+        <v>9</v>
+      </c>
+      <c r="D180">
+        <v>130.4671905305881</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1">
+        <v>126</v>
+      </c>
+      <c r="B181">
+        <v>11</v>
+      </c>
+      <c r="C181">
+        <v>10</v>
+      </c>
+      <c r="D181">
+        <v>66.11045580644067</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1">
+        <v>125</v>
+      </c>
+      <c r="B182">
+        <v>11</v>
+      </c>
+      <c r="C182">
+        <v>12</v>
+      </c>
+      <c r="D182">
+        <v>160.3233118404126</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1">
+        <v>124</v>
+      </c>
+      <c r="B183">
+        <v>11</v>
+      </c>
+      <c r="C183">
+        <v>13</v>
+      </c>
+      <c r="D183">
+        <v>141.5289680215618</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1">
+        <v>123</v>
+      </c>
+      <c r="B184">
+        <v>11</v>
+      </c>
+      <c r="C184">
+        <v>14</v>
+      </c>
+      <c r="D184">
+        <v>99.5132993635014</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1">
+        <v>122</v>
+      </c>
+      <c r="B185">
+        <v>11</v>
+      </c>
+      <c r="C185">
+        <v>15</v>
+      </c>
+      <c r="D185">
+        <v>73.23366595480366</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1">
+        <v>121</v>
+      </c>
+      <c r="B186">
+        <v>11</v>
+      </c>
+      <c r="C186">
+        <v>16</v>
+      </c>
+      <c r="D186">
+        <v>103.1391354806379</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1">
+        <v>120</v>
+      </c>
+      <c r="B187">
+        <v>11</v>
+      </c>
+      <c r="C187">
+        <v>17</v>
+      </c>
+      <c r="D187">
+        <v>90.26036416337996</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1">
+        <v>119</v>
+      </c>
+      <c r="B188">
+        <v>11</v>
+      </c>
+      <c r="C188">
+        <v>18</v>
+      </c>
+      <c r="D188">
+        <v>141.5289680215618</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1">
+        <v>118</v>
+      </c>
+      <c r="B189">
+        <v>12</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>114.3336892356768</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1">
+        <v>117</v>
+      </c>
+      <c r="B190">
+        <v>12</v>
+      </c>
+      <c r="C190">
+        <v>2</v>
+      </c>
+      <c r="D190">
+        <v>37.74488316826037</v>
+      </c>
+      <c r="E190">
+        <v>2</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1">
+        <v>116</v>
+      </c>
+      <c r="B191">
+        <v>12</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+      <c r="D191">
+        <v>229.6863842014571</v>
+      </c>
+      <c r="E191">
+        <v>2</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1">
+        <v>115</v>
+      </c>
+      <c r="B192">
+        <v>12</v>
+      </c>
+      <c r="C192">
+        <v>4</v>
+      </c>
+      <c r="D192">
+        <v>244.726255985816</v>
+      </c>
+      <c r="E192">
+        <v>2</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1">
+        <v>114</v>
+      </c>
+      <c r="B193">
+        <v>12</v>
+      </c>
+      <c r="C193">
+        <v>5</v>
+      </c>
+      <c r="D193">
+        <v>302.6209374146798</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1">
+        <v>113</v>
+      </c>
+      <c r="B194">
+        <v>12</v>
+      </c>
+      <c r="C194">
+        <v>6</v>
+      </c>
+      <c r="D194">
+        <v>352.3290649619132</v>
+      </c>
+      <c r="E194">
+        <v>2</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1">
+        <v>112</v>
+      </c>
+      <c r="B195">
+        <v>12</v>
+      </c>
+      <c r="C195">
+        <v>7</v>
+      </c>
+      <c r="D195">
+        <v>280.896820570524</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1">
+        <v>111</v>
+      </c>
+      <c r="B196">
+        <v>12</v>
+      </c>
+      <c r="C196">
+        <v>8</v>
+      </c>
+      <c r="D196">
+        <v>263.1569413751739</v>
+      </c>
+      <c r="E196">
+        <v>2</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1">
+        <v>110</v>
+      </c>
+      <c r="B197">
+        <v>12</v>
+      </c>
+      <c r="C197">
+        <v>9</v>
+      </c>
+      <c r="D197">
+        <v>240.3536776283722</v>
+      </c>
+      <c r="E197">
+        <v>2</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1">
+        <v>109</v>
+      </c>
+      <c r="B198">
+        <v>12</v>
+      </c>
+      <c r="C198">
+        <v>10</v>
+      </c>
+      <c r="D198">
+        <v>208.1479543814655</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1">
+        <v>108</v>
+      </c>
+      <c r="B199">
+        <v>12</v>
+      </c>
+      <c r="C199">
+        <v>11</v>
+      </c>
+      <c r="D199">
+        <v>160.3233118404126</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1">
+        <v>107</v>
+      </c>
+      <c r="B200">
+        <v>12</v>
+      </c>
+      <c r="C200">
+        <v>13</v>
+      </c>
+      <c r="D200">
         <v>69.3731342716392</v>
       </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133">
+      <c r="E200">
+        <v>2</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1">
+        <v>106</v>
+      </c>
+      <c r="B201">
+        <v>12</v>
+      </c>
+      <c r="C201">
+        <v>14</v>
+      </c>
+      <c r="D201">
+        <v>253.1297384185396</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1">
+        <v>105</v>
+      </c>
+      <c r="B202">
+        <v>12</v>
+      </c>
+      <c r="C202">
+        <v>15</v>
+      </c>
+      <c r="D202">
+        <v>109.7973280131668</v>
+      </c>
+      <c r="E202">
+        <v>2</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1">
+        <v>104</v>
+      </c>
+      <c r="B203">
+        <v>12</v>
+      </c>
+      <c r="C203">
+        <v>16</v>
+      </c>
+      <c r="D203">
+        <v>58.91767890292661</v>
+      </c>
+      <c r="E203">
+        <v>2</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1">
+        <v>103</v>
+      </c>
+      <c r="B204">
+        <v>12</v>
+      </c>
+      <c r="C204">
+        <v>17</v>
+      </c>
+      <c r="D204">
+        <v>73.92728031241319</v>
+      </c>
+      <c r="E204">
+        <v>2</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1">
+        <v>102</v>
+      </c>
+      <c r="B205">
+        <v>12</v>
+      </c>
+      <c r="C205">
+        <v>18</v>
+      </c>
+      <c r="D205">
+        <v>69.3731342716392</v>
+      </c>
+      <c r="E205">
+        <v>2</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1">
+        <v>101</v>
+      </c>
+      <c r="B206">
+        <v>13</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>77.47457462115945</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1">
+        <v>100</v>
+      </c>
+      <c r="B207">
+        <v>13</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
+      </c>
+      <c r="D207">
+        <v>61.69486051380367</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1">
+        <v>99</v>
+      </c>
+      <c r="B208">
+        <v>13</v>
+      </c>
+      <c r="C208">
+        <v>3</v>
+      </c>
+      <c r="D208">
+        <v>213.8348914445764</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1">
+        <v>98</v>
+      </c>
+      <c r="B209">
+        <v>13</v>
+      </c>
+      <c r="C209">
+        <v>4</v>
+      </c>
+      <c r="D209">
+        <v>201.759835065755</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1">
+        <v>97</v>
+      </c>
+      <c r="B210">
+        <v>13</v>
+      </c>
+      <c r="C210">
+        <v>5</v>
+      </c>
+      <c r="D210">
+        <v>260.1549499282424</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1">
+        <v>96</v>
+      </c>
+      <c r="B211">
+        <v>13</v>
+      </c>
+      <c r="C211">
+        <v>6</v>
+      </c>
+      <c r="D211">
+        <v>304.9798013153437</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1">
+        <v>95</v>
+      </c>
+      <c r="B212">
+        <v>13</v>
+      </c>
+      <c r="C212">
+        <v>7</v>
+      </c>
+      <c r="D212">
+        <v>253.570450384182</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1">
+        <v>94</v>
+      </c>
+      <c r="B213">
+        <v>13</v>
+      </c>
+      <c r="C213">
+        <v>8</v>
+      </c>
+      <c r="D213">
+        <v>224.2070112118353</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1">
+        <v>93</v>
+      </c>
+      <c r="B214">
+        <v>13</v>
+      </c>
+      <c r="C214">
+        <v>9</v>
+      </c>
+      <c r="D214">
+        <v>184.7476479924431</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1">
+        <v>92</v>
+      </c>
+      <c r="B215">
+        <v>13</v>
+      </c>
+      <c r="C215">
+        <v>10</v>
+      </c>
+      <c r="D215">
+        <v>169.220035254078</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>91</v>
+      </c>
+      <c r="B216">
+        <v>13</v>
+      </c>
+      <c r="C216">
+        <v>11</v>
+      </c>
+      <c r="D216">
+        <v>141.5289680215618</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>90</v>
+      </c>
+      <c r="B217">
+        <v>13</v>
+      </c>
+      <c r="C217">
+        <v>12</v>
+      </c>
+      <c r="D217">
+        <v>69.3731342716392</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>89</v>
+      </c>
+      <c r="B218">
+        <v>13</v>
+      </c>
+      <c r="C218">
+        <v>14</v>
+      </c>
+      <c r="D218">
+        <v>241.0286175896432</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>88</v>
+      </c>
+      <c r="B219">
+        <v>13</v>
+      </c>
+      <c r="C219">
+        <v>15</v>
+      </c>
+      <c r="D219">
+        <v>124.5797160071294</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>87</v>
+      </c>
+      <c r="B220">
+        <v>13</v>
+      </c>
+      <c r="C220">
+        <v>16</v>
+      </c>
+      <c r="D220">
+        <v>55.79053596387693</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>86</v>
+      </c>
+      <c r="B221">
+        <v>13</v>
+      </c>
+      <c r="C221">
+        <v>17</v>
+      </c>
+      <c r="D221">
+        <v>58.53794484835112</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>85</v>
+      </c>
+      <c r="B222">
+        <v>13</v>
+      </c>
+      <c r="C222">
+        <v>18</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>84</v>
+      </c>
+      <c r="B223">
+        <v>14</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>165.3213658207432</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>83</v>
+      </c>
+      <c r="B224">
+        <v>14</v>
+      </c>
+      <c r="C224">
+        <v>2</v>
+      </c>
+      <c r="D224">
+        <v>216.0262982833308</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>82</v>
+      </c>
+      <c r="B225">
+        <v>14</v>
+      </c>
+      <c r="C225">
+        <v>3</v>
+      </c>
+      <c r="D225">
+        <v>28.66342844057766</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>81</v>
+      </c>
+      <c r="B226">
+        <v>14</v>
+      </c>
+      <c r="C226">
+        <v>4</v>
+      </c>
+      <c r="D226">
+        <v>116.8132507773591</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>80</v>
+      </c>
+      <c r="B227">
+        <v>14</v>
+      </c>
+      <c r="C227">
+        <v>5</v>
+      </c>
+      <c r="D227">
+        <v>130.6994898718191</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
+        <v>79</v>
+      </c>
+      <c r="B228">
+        <v>14</v>
+      </c>
+      <c r="C228">
+        <v>6</v>
+      </c>
+      <c r="D228">
+        <v>181.2285761013569</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
+        <v>78</v>
+      </c>
+      <c r="B229">
+        <v>14</v>
+      </c>
+      <c r="C229">
+        <v>7</v>
+      </c>
+      <c r="D229">
+        <v>62.22238341422698</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
+        <v>77</v>
+      </c>
+      <c r="B230">
+        <v>14</v>
+      </c>
+      <c r="C230">
+        <v>8</v>
+      </c>
+      <c r="D230">
+        <v>102.4085320311252</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
+        <v>76</v>
+      </c>
+      <c r="B231">
+        <v>14</v>
+      </c>
+      <c r="C231">
+        <v>9</v>
+      </c>
+      <c r="D231">
+        <v>171.8634080960878</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
+        <v>75</v>
+      </c>
+      <c r="B232">
+        <v>14</v>
+      </c>
+      <c r="C232">
+        <v>10</v>
+      </c>
+      <c r="D232">
+        <v>107.5819509640299</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1">
+        <v>74</v>
+      </c>
+      <c r="B233">
+        <v>14</v>
+      </c>
+      <c r="C233">
+        <v>11</v>
+      </c>
+      <c r="D233">
+        <v>99.5132993635014</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1">
+        <v>73</v>
+      </c>
+      <c r="B234">
+        <v>14</v>
+      </c>
+      <c r="C234">
+        <v>12</v>
+      </c>
+      <c r="D234">
+        <v>253.1297384185396</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1">
+        <v>72</v>
+      </c>
+      <c r="B235">
+        <v>14</v>
+      </c>
+      <c r="C235">
+        <v>13</v>
+      </c>
+      <c r="D235">
+        <v>241.0286175896432</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1">
+        <v>71</v>
+      </c>
+      <c r="B236">
+        <v>14</v>
+      </c>
+      <c r="C236">
+        <v>15</v>
+      </c>
+      <c r="D236">
+        <v>148.0871737687098</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1">
+        <v>70</v>
+      </c>
+      <c r="B237">
+        <v>14</v>
+      </c>
+      <c r="C237">
+        <v>16</v>
+      </c>
+      <c r="D237">
+        <v>199.4107101319815</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1">
+        <v>69</v>
+      </c>
+      <c r="B238">
+        <v>14</v>
+      </c>
+      <c r="C238">
+        <v>17</v>
+      </c>
+      <c r="D238">
+        <v>188.0224139550496</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1">
+        <v>68</v>
+      </c>
+      <c r="B239">
+        <v>14</v>
+      </c>
+      <c r="C239">
+        <v>18</v>
+      </c>
+      <c r="D239">
+        <v>241.0286175896432</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1">
+        <v>67</v>
+      </c>
+      <c r="B240">
+        <v>15</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>83.0368689617994</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1">
+        <v>66</v>
+      </c>
+      <c r="B241">
+        <v>15</v>
+      </c>
+      <c r="C241">
+        <v>2</v>
+      </c>
+      <c r="D241">
+        <v>76.33524505114966</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1">
+        <v>65</v>
+      </c>
+      <c r="B242">
+        <v>15</v>
+      </c>
+      <c r="C242">
+        <v>3</v>
+      </c>
+      <c r="D242">
+        <v>128.4942268705437</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1">
+        <v>64</v>
+      </c>
+      <c r="B243">
+        <v>15</v>
+      </c>
+      <c r="C243">
+        <v>4</v>
+      </c>
+      <c r="D243">
+        <v>175.2534093201793</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1">
+        <v>63</v>
+      </c>
+      <c r="B244">
+        <v>15</v>
+      </c>
+      <c r="C244">
+        <v>5</v>
+      </c>
+      <c r="D244">
+        <v>226.5288746302768</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1">
+        <v>62</v>
+      </c>
+      <c r="B245">
+        <v>15</v>
+      </c>
+      <c r="C245">
+        <v>6</v>
+      </c>
+      <c r="D245">
+        <v>280.9134716766823</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1">
+        <v>61</v>
+      </c>
+      <c r="B246">
+        <v>15</v>
+      </c>
+      <c r="C246">
+        <v>7</v>
+      </c>
+      <c r="D246">
+        <v>186.9934630137794</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1">
+        <v>60</v>
+      </c>
+      <c r="B247">
+        <v>15</v>
+      </c>
+      <c r="C247">
+        <v>8</v>
+      </c>
+      <c r="D247">
+        <v>185.2470275376128</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1">
+        <v>59</v>
+      </c>
+      <c r="B248">
+        <v>15</v>
+      </c>
+      <c r="C248">
+        <v>9</v>
+      </c>
+      <c r="D248">
+        <v>195.9968732533477</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1">
+        <v>58</v>
+      </c>
+      <c r="B249">
+        <v>15</v>
+      </c>
+      <c r="C249">
+        <v>10</v>
+      </c>
+      <c r="D249">
+        <v>138.0964545351179</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1">
+        <v>57</v>
+      </c>
+      <c r="B250">
+        <v>15</v>
+      </c>
+      <c r="C250">
+        <v>11</v>
+      </c>
+      <c r="D250">
+        <v>73.23366595480366</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1">
+        <v>56</v>
+      </c>
+      <c r="B251">
+        <v>15</v>
+      </c>
+      <c r="C251">
+        <v>12</v>
+      </c>
+      <c r="D251">
+        <v>109.7973280131668</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="1">
+        <v>55</v>
+      </c>
+      <c r="B252">
+        <v>15</v>
+      </c>
+      <c r="C252">
+        <v>13</v>
+      </c>
+      <c r="D252">
+        <v>124.5797160071294</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="1">
+        <v>54</v>
+      </c>
+      <c r="B253">
+        <v>15</v>
+      </c>
+      <c r="C253">
+        <v>14</v>
+      </c>
+      <c r="D253">
+        <v>148.0871737687098</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="1">
+        <v>53</v>
+      </c>
+      <c r="B254">
+        <v>15</v>
+      </c>
+      <c r="C254">
+        <v>16</v>
+      </c>
+      <c r="D254">
+        <v>69.43861798147509</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="1">
+        <v>52</v>
+      </c>
+      <c r="B255">
+        <v>15</v>
+      </c>
+      <c r="C255">
+        <v>17</v>
+      </c>
+      <c r="D255">
+        <v>67.28326414464</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="1">
+        <v>51</v>
+      </c>
+      <c r="B256">
+        <v>15</v>
+      </c>
+      <c r="C256">
+        <v>18</v>
+      </c>
+      <c r="D256">
+        <v>124.5797160071294</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="1">
+        <v>50</v>
+      </c>
+      <c r="B257">
+        <v>16</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>56.97992847997619</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="1">
+        <v>49</v>
+      </c>
+      <c r="B258">
+        <v>16</v>
+      </c>
+      <c r="C258">
+        <v>2</v>
+      </c>
+      <c r="D258">
+        <v>23.21374301810194</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="1">
+        <v>48</v>
+      </c>
+      <c r="B259">
+        <v>16</v>
+      </c>
+      <c r="C259">
+        <v>3</v>
+      </c>
+      <c r="D259">
+        <v>174.368126891756</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="1">
+        <v>47</v>
+      </c>
+      <c r="B260">
+        <v>16</v>
+      </c>
+      <c r="C260">
+        <v>4</v>
+      </c>
+      <c r="D260">
+        <v>186.1953156470137</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="1">
+        <v>46</v>
+      </c>
+      <c r="B261">
+        <v>16</v>
+      </c>
+      <c r="C261">
+        <v>5</v>
+      </c>
+      <c r="D261">
+        <v>243.8725418734953</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="1">
+        <v>45</v>
+      </c>
+      <c r="B262">
+        <v>16</v>
+      </c>
+      <c r="C262">
+        <v>6</v>
+      </c>
+      <c r="D262">
+        <v>294.1118719811059</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="1">
+        <v>44</v>
+      </c>
+      <c r="B263">
+        <v>16</v>
+      </c>
+      <c r="C263">
+        <v>7</v>
+      </c>
+      <c r="D263">
+        <v>222.9695790099614</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="1">
+        <v>43</v>
+      </c>
+      <c r="B264">
+        <v>16</v>
+      </c>
+      <c r="C264">
+        <v>8</v>
+      </c>
+      <c r="D264">
+        <v>204.262838265651</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="1">
+        <v>42</v>
+      </c>
+      <c r="B265">
+        <v>16</v>
+      </c>
+      <c r="C265">
+        <v>9</v>
+      </c>
+      <c r="D265">
+        <v>185.7760276550267</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="1">
+        <v>41</v>
+      </c>
+      <c r="B266">
+        <v>16</v>
+      </c>
+      <c r="C266">
+        <v>10</v>
+      </c>
+      <c r="D266">
+        <v>149.3611927444786</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="1">
+        <v>40</v>
+      </c>
+      <c r="B267">
+        <v>16</v>
+      </c>
+      <c r="C267">
+        <v>11</v>
+      </c>
+      <c r="D267">
+        <v>103.1391354806379</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="1">
+        <v>39</v>
+      </c>
+      <c r="B268">
+        <v>16</v>
+      </c>
+      <c r="C268">
+        <v>12</v>
+      </c>
+      <c r="D268">
+        <v>58.91767890292661</v>
+      </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="1">
+        <v>38</v>
+      </c>
+      <c r="B269">
+        <v>16</v>
+      </c>
+      <c r="C269">
+        <v>13</v>
+      </c>
+      <c r="D269">
+        <v>55.79053596387693</v>
+      </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="1">
+        <v>37</v>
+      </c>
+      <c r="B270">
+        <v>16</v>
+      </c>
+      <c r="C270">
+        <v>14</v>
+      </c>
+      <c r="D270">
+        <v>199.4107101319815</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="1">
+        <v>36</v>
+      </c>
+      <c r="B271">
+        <v>16</v>
+      </c>
+      <c r="C271">
+        <v>15</v>
+      </c>
+      <c r="D271">
+        <v>69.43861798147509</v>
+      </c>
+      <c r="E271">
+        <v>1</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="1">
+        <v>35</v>
+      </c>
+      <c r="B272">
+        <v>16</v>
+      </c>
+      <c r="C272">
+        <v>17</v>
+      </c>
+      <c r="D272">
+        <v>15.32036537858847</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="1">
+        <v>34</v>
+      </c>
+      <c r="B273">
+        <v>16</v>
+      </c>
+      <c r="C273">
+        <v>18</v>
+      </c>
+      <c r="D273">
+        <v>55.79053596387693</v>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="1">
+        <v>33</v>
+      </c>
+      <c r="B274">
+        <v>17</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>41.76969456065987</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="1">
+        <v>32</v>
+      </c>
+      <c r="B275">
+        <v>17</v>
+      </c>
+      <c r="C275">
+        <v>2</v>
+      </c>
+      <c r="D275">
+        <v>38.48202026312499</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="1">
+        <v>31</v>
+      </c>
+      <c r="B276">
+        <v>17</v>
+      </c>
+      <c r="C276">
+        <v>3</v>
+      </c>
+      <c r="D276">
+        <v>162.2582122453798</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="1">
+        <v>30</v>
+      </c>
+      <c r="B277">
+        <v>17</v>
+      </c>
+      <c r="C277">
+        <v>4</v>
+      </c>
+      <c r="D277">
+        <v>170.9499458944211</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="1">
+        <v>29</v>
+      </c>
+      <c r="B278">
+        <v>17</v>
+      </c>
+      <c r="C278">
+        <v>5</v>
+      </c>
+      <c r="D278">
+        <v>228.7163260851011</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="1">
+        <v>28</v>
+      </c>
+      <c r="B279">
+        <v>17</v>
+      </c>
+      <c r="C279">
+        <v>6</v>
+      </c>
+      <c r="D279">
+        <v>278.8180102515514</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="1">
+        <v>27</v>
+      </c>
+      <c r="B280">
+        <v>17</v>
+      </c>
+      <c r="C280">
+        <v>7</v>
+      </c>
+      <c r="D280">
+        <v>209.1598052736991</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="1">
+        <v>26</v>
+      </c>
+      <c r="B281">
+        <v>17</v>
+      </c>
+      <c r="C281">
+        <v>8</v>
+      </c>
+      <c r="D281">
+        <v>189.2536398719443</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="1">
+        <v>25</v>
+      </c>
+      <c r="B282">
+        <v>17</v>
+      </c>
+      <c r="C282">
+        <v>9</v>
+      </c>
+      <c r="D282">
+        <v>170.8425318158178</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="1">
+        <v>24</v>
+      </c>
+      <c r="B283">
+        <v>17</v>
+      </c>
+      <c r="C283">
+        <v>10</v>
+      </c>
+      <c r="D283">
+        <v>134.2263411621672</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="1">
+        <v>23</v>
+      </c>
+      <c r="B284">
+        <v>17</v>
+      </c>
+      <c r="C284">
+        <v>11</v>
+      </c>
+      <c r="D284">
+        <v>90.26036416337996</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="1">
+        <v>22</v>
+      </c>
+      <c r="B285">
+        <v>17</v>
+      </c>
+      <c r="C285">
+        <v>12</v>
+      </c>
+      <c r="D285">
+        <v>73.92728031241319</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="1">
+        <v>21</v>
+      </c>
+      <c r="B286">
+        <v>17</v>
+      </c>
+      <c r="C286">
+        <v>13</v>
+      </c>
+      <c r="D286">
+        <v>58.53794484835112</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="1">
+        <v>20</v>
+      </c>
+      <c r="B287">
+        <v>17</v>
+      </c>
+      <c r="C287">
+        <v>14</v>
+      </c>
+      <c r="D287">
+        <v>188.0224139550496</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="1">
+        <v>19</v>
+      </c>
+      <c r="B288">
+        <v>17</v>
+      </c>
+      <c r="C288">
+        <v>15</v>
+      </c>
+      <c r="D288">
+        <v>67.28326414464</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="1">
+        <v>18</v>
+      </c>
+      <c r="B289">
+        <v>17</v>
+      </c>
+      <c r="C289">
+        <v>16</v>
+      </c>
+      <c r="D289">
+        <v>15.32036537858847</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="1">
+        <v>17</v>
+      </c>
+      <c r="B290">
+        <v>17</v>
+      </c>
+      <c r="C290">
+        <v>18</v>
+      </c>
+      <c r="D290">
+        <v>58.53794484835112</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="1">
+        <v>16</v>
+      </c>
+      <c r="B291">
+        <v>18</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>77.47457462115945</v>
+      </c>
+      <c r="E291">
+        <v>2</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="1">
+        <v>15</v>
+      </c>
+      <c r="B292">
+        <v>18</v>
+      </c>
+      <c r="C292">
+        <v>2</v>
+      </c>
+      <c r="D292">
+        <v>61.69486051380367</v>
+      </c>
+      <c r="E292">
+        <v>2</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="1">
+        <v>14</v>
+      </c>
+      <c r="B293">
+        <v>18</v>
+      </c>
+      <c r="C293">
+        <v>3</v>
+      </c>
+      <c r="D293">
+        <v>213.8348914445764</v>
+      </c>
+      <c r="E293">
+        <v>2</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="1">
+        <v>13</v>
+      </c>
+      <c r="B294">
+        <v>18</v>
+      </c>
+      <c r="C294">
+        <v>4</v>
+      </c>
+      <c r="D294">
+        <v>201.759835065755</v>
+      </c>
+      <c r="E294">
+        <v>2</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="1">
+        <v>12</v>
+      </c>
+      <c r="B295">
+        <v>18</v>
+      </c>
+      <c r="C295">
+        <v>5</v>
+      </c>
+      <c r="D295">
+        <v>260.1549499282424</v>
+      </c>
+      <c r="E295">
+        <v>2</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="1">
+        <v>11</v>
+      </c>
+      <c r="B296">
+        <v>18</v>
+      </c>
+      <c r="C296">
+        <v>6</v>
+      </c>
+      <c r="D296">
+        <v>304.9798013153437</v>
+      </c>
+      <c r="E296">
+        <v>2</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="1">
+        <v>10</v>
+      </c>
+      <c r="B297">
+        <v>18</v>
+      </c>
+      <c r="C297">
+        <v>7</v>
+      </c>
+      <c r="D297">
+        <v>253.570450384182</v>
+      </c>
+      <c r="E297">
+        <v>2</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="1">
+        <v>9</v>
+      </c>
+      <c r="B298">
+        <v>18</v>
+      </c>
+      <c r="C298">
+        <v>8</v>
+      </c>
+      <c r="D298">
+        <v>224.2070112118353</v>
+      </c>
+      <c r="E298">
+        <v>2</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="1">
+        <v>8</v>
+      </c>
+      <c r="B299">
+        <v>18</v>
+      </c>
+      <c r="C299">
+        <v>9</v>
+      </c>
+      <c r="D299">
+        <v>184.7476479924431</v>
+      </c>
+      <c r="E299">
+        <v>2</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="1">
+        <v>7</v>
+      </c>
+      <c r="B300">
+        <v>18</v>
+      </c>
+      <c r="C300">
+        <v>10</v>
+      </c>
+      <c r="D300">
+        <v>169.220035254078</v>
+      </c>
+      <c r="E300">
+        <v>2</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="1">
+        <v>6</v>
+      </c>
+      <c r="B301">
+        <v>18</v>
+      </c>
+      <c r="C301">
+        <v>11</v>
+      </c>
+      <c r="D301">
+        <v>141.5289680215618</v>
+      </c>
+      <c r="E301">
+        <v>2</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="1">
+        <v>5</v>
+      </c>
+      <c r="B302">
+        <v>18</v>
+      </c>
+      <c r="C302">
+        <v>12</v>
+      </c>
+      <c r="D302">
+        <v>69.3731342716392</v>
+      </c>
+      <c r="E302">
+        <v>2</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="1">
+        <v>4</v>
+      </c>
+      <c r="B303">
+        <v>18</v>
+      </c>
+      <c r="C303">
+        <v>13</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>2</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="1">
+        <v>3</v>
+      </c>
+      <c r="B304">
+        <v>18</v>
+      </c>
+      <c r="C304">
+        <v>14</v>
+      </c>
+      <c r="D304">
+        <v>241.0286175896432</v>
+      </c>
+      <c r="E304">
+        <v>2</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="1">
+        <v>2</v>
+      </c>
+      <c r="B305">
+        <v>18</v>
+      </c>
+      <c r="C305">
+        <v>15</v>
+      </c>
+      <c r="D305">
+        <v>124.5797160071294</v>
+      </c>
+      <c r="E305">
+        <v>2</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="1">
+        <v>1</v>
+      </c>
+      <c r="B306">
+        <v>18</v>
+      </c>
+      <c r="C306">
+        <v>16</v>
+      </c>
+      <c r="D306">
+        <v>55.79053596387693</v>
+      </c>
+      <c r="E306">
+        <v>2</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="1">
+        <v>0</v>
+      </c>
+      <c r="B307">
+        <v>18</v>
+      </c>
+      <c r="C307">
+        <v>17</v>
+      </c>
+      <c r="D307">
+        <v>58.53794484835112</v>
+      </c>
+      <c r="E307">
+        <v>2</v>
+      </c>
+      <c r="F307">
         <v>0</v>
       </c>
     </row>

--- a/database/variables.xlsx
+++ b/database/variables.xlsx
@@ -2123,7 +2123,7 @@
         <v>238.0319600509513</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>317.0384236454702</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>175.525191889209</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>108.2737918631363</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>55.10713878191084</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>119.1445757037869</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2243,7 +2243,7 @@
         <v>95.90524628686219</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>125.642641388176</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>145.9827487106895</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2303,7 +2303,7 @@
         <v>207.7145004863497</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>352.3290649619132</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>304.9798013153437</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>181.2285761013569</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>280.9134716766823</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>294.1118719811059</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>278.8180102515514</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -2443,7 +2443,7 @@
         <v>304.9798013153437</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3143,7 +3143,7 @@
         <v>129.3207537043945</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -3163,7 +3163,7 @@
         <v>208.8660367269037</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>148.4770002727048</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -3203,7 +3203,7 @@
         <v>57.54399500258653</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -3223,7 +3223,7 @@
         <v>95.44284268816818</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>125.642641388176</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         <v>134.9128083959701</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>81.44198948248008</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>70.36003083174874</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>130.4671905305881</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>240.3536776283722</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>184.7476479924431</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>171.8634080960878</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -3403,7 +3403,7 @@
         <v>195.9968732533477</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         <v>185.7760276550267</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>170.8425318158178</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>184.7476479924431</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>95.20760283584727</v>
       </c>
       <c r="E155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>171.9297824091265</v>
       </c>
       <c r="E156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>81.32813627114759</v>
       </c>
       <c r="E157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>37.87073092433855</v>
       </c>
       <c r="E158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>94.51772234180511</v>
       </c>
       <c r="E159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -3583,7 +3583,7 @@
         <v>145.9827487106895</v>
       </c>
       <c r="E160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>90.03614762849955</v>
       </c>
       <c r="E161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         <v>55.50208134650391</v>
       </c>
       <c r="E162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>70.36003083174874</v>
       </c>
       <c r="E163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>66.11045580644067</v>
       </c>
       <c r="E164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -3683,7 +3683,7 @@
         <v>208.1479543814655</v>
       </c>
       <c r="E165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>169.220035254078</v>
       </c>
       <c r="E166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>107.5819509640299</v>
       </c>
       <c r="E167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>138.0964545351179</v>
       </c>
       <c r="E168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>149.3611927444786</v>
       </c>
       <c r="E169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3783,7 +3783,7 @@
         <v>134.2263411621672</v>
       </c>
       <c r="E170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>169.220035254078</v>
       </c>
       <c r="E171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>165.3213658207432</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4863,7 +4863,7 @@
         <v>216.0262982833308</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -4883,7 +4883,7 @@
         <v>28.66342844057766</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -4903,7 +4903,7 @@
         <v>116.8132507773591</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -4923,7 +4923,7 @@
         <v>130.6994898718191</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>181.2285761013569</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>62.22238341422698</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>102.4085320311252</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>171.8634080960878</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -5023,7 +5023,7 @@
         <v>107.5819509640299</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         <v>99.5132993635014</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -5063,7 +5063,7 @@
         <v>253.1297384185396</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -5083,7 +5083,7 @@
         <v>241.0286175896432</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -5103,7 +5103,7 @@
         <v>148.0871737687098</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>199.4107101319815</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -5143,7 +5143,7 @@
         <v>188.0224139550496</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>241.0286175896432</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -5183,7 +5183,7 @@
         <v>83.0368689617994</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>76.33524505114966</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -5223,7 +5223,7 @@
         <v>128.4942268705437</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -5243,7 +5243,7 @@
         <v>175.2534093201793</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -5263,7 +5263,7 @@
         <v>226.5288746302768</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -5283,7 +5283,7 @@
         <v>280.9134716766823</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -5303,7 +5303,7 @@
         <v>186.9934630137794</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -5323,7 +5323,7 @@
         <v>185.2470275376128</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -5343,7 +5343,7 @@
         <v>195.9968732533477</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -5363,7 +5363,7 @@
         <v>138.0964545351179</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -5383,7 +5383,7 @@
         <v>73.23366595480366</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -5403,7 +5403,7 @@
         <v>109.7973280131668</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -5423,7 +5423,7 @@
         <v>124.5797160071294</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>148.0871737687098</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -5463,7 +5463,7 @@
         <v>69.43861798147509</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -5483,7 +5483,7 @@
         <v>67.28326414464</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -5503,7 +5503,7 @@
         <v>124.5797160071294</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>56.97992847997619</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -5543,7 +5543,7 @@
         <v>23.21374301810194</v>
       </c>
       <c r="E258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -5563,7 +5563,7 @@
         <v>174.368126891756</v>
       </c>
       <c r="E259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -5583,7 +5583,7 @@
         <v>186.1953156470137</v>
       </c>
       <c r="E260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -5603,7 +5603,7 @@
         <v>243.8725418734953</v>
       </c>
       <c r="E261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -5623,7 +5623,7 @@
         <v>294.1118719811059</v>
       </c>
       <c r="E262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -5643,7 +5643,7 @@
         <v>222.9695790099614</v>
       </c>
       <c r="E263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -5663,7 +5663,7 @@
         <v>204.262838265651</v>
       </c>
       <c r="E264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -5683,7 +5683,7 @@
         <v>185.7760276550267</v>
       </c>
       <c r="E265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -5703,7 +5703,7 @@
         <v>149.3611927444786</v>
       </c>
       <c r="E266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -5723,7 +5723,7 @@
         <v>103.1391354806379</v>
       </c>
       <c r="E267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -5743,7 +5743,7 @@
         <v>58.91767890292661</v>
       </c>
       <c r="E268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -5763,7 +5763,7 @@
         <v>55.79053596387693</v>
       </c>
       <c r="E269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -5783,7 +5783,7 @@
         <v>199.4107101319815</v>
       </c>
       <c r="E270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -5803,7 +5803,7 @@
         <v>69.43861798147509</v>
       </c>
       <c r="E271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -5823,7 +5823,7 @@
         <v>15.32036537858847</v>
       </c>
       <c r="E272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>55.79053596387693</v>
       </c>
       <c r="E273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F273">
         <v>0</v>
@@ -5863,7 +5863,7 @@
         <v>41.76969456065987</v>
       </c>
       <c r="E274">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -5883,7 +5883,7 @@
         <v>38.48202026312499</v>
       </c>
       <c r="E275">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>162.2582122453798</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -5923,7 +5923,7 @@
         <v>170.9499458944211</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F277">
         <v>0</v>
@@ -5943,7 +5943,7 @@
         <v>228.7163260851011</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -5963,7 +5963,7 @@
         <v>278.8180102515514</v>
       </c>
       <c r="E279">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -5983,7 +5983,7 @@
         <v>209.1598052736991</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -6003,7 +6003,7 @@
         <v>189.2536398719443</v>
       </c>
       <c r="E281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         <v>170.8425318158178</v>
       </c>
       <c r="E282">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -6043,7 +6043,7 @@
         <v>134.2263411621672</v>
       </c>
       <c r="E283">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -6063,7 +6063,7 @@
         <v>90.26036416337996</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -6083,7 +6083,7 @@
         <v>73.92728031241319</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -6103,7 +6103,7 @@
         <v>58.53794484835112</v>
       </c>
       <c r="E286">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F286">
         <v>0</v>
@@ -6123,7 +6123,7 @@
         <v>188.0224139550496</v>
       </c>
       <c r="E287">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F287">
         <v>0</v>
@@ -6143,7 +6143,7 @@
         <v>67.28326414464</v>
       </c>
       <c r="E288">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -6163,7 +6163,7 @@
         <v>15.32036537858847</v>
       </c>
       <c r="E289">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>58.53794484835112</v>
       </c>
       <c r="E290">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F290">
         <v>0</v>

--- a/database/variables.xlsx
+++ b/database/variables.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,7 +411,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -420,18 +420,18 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>1.414213562373095</v>
+        <v>80.19356351346165</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-1.964185503295965</v>
+        <v>13.84500345608938</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -440,18 +440,18 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>1.414213562373095</v>
+        <v>238.0319600509513</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.964185503295965</v>
+        <v>-13.98239859591787</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -460,193 +460,1393 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>176.3727567813359</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.700898332149102e-16</v>
+        <v>-11.91337323487565</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>1.414213562373095</v>
+        <v>150.6999219800282</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.964185503295965</v>
+        <v>-13.53017044209367</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>129.3207537043945</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2.777777777777778</v>
+        <v>-13.32908934276823</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>6.082762530298219</v>
+        <v>95.20760283584727</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>-0.4566638536259931</v>
+        <v>-13.56091332565174</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>1.414213562373095</v>
+        <v>66.41328635685213</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.964185503295965</v>
+        <v>-7.348926107609257</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>114.3336892356768</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>-2.777777777777778</v>
+        <v>13.99737357115403</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>6.082762530298219</v>
+        <v>80.19356351346165</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4566638536259928</v>
+        <v>-13.84500345608938</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>317.0384236454702</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.700898332149102e-16</v>
+        <v>-13.9999999273382</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
         <v>4</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
       <c r="D12">
-        <v>6.082762530298219</v>
+        <v>243.184773702745</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>-0.4566638536259931</v>
+        <v>-13.2059034581068</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>226.5406721266822</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>-13.90159111136969</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>59</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>208.8660367269037</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>-13.56854416549072</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>58</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>171.9297824091265</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>-13.96722650579315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>122.5800579802334</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>-13.03920494357852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>37.74488316826037</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>12.98430819921355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>238.0319600509513</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>13.98239859591787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>54</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>317.0384236454702</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>13.9999999273382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>53</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
         <v>4</v>
       </c>
-      <c r="C13">
+      <c r="D20">
+        <v>119.1445757037869</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>10.29894358808815</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>52</v>
+      </c>
+      <c r="B21">
         <v>3</v>
       </c>
-      <c r="D13">
-        <v>6.082762530298219</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.4566638536259928</v>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>95.90524628686219</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>13.44308224957462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>51</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>125.642641388176</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>12.77058366707499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>145.9827487106895</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>13.954770080657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>207.7145004863497</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>13.67353460326496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>352.3290649619132</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>13.98870997069965</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>47</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>176.3727567813359</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>11.91337323487565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>243.184773702745</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>13.2059034581068</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>119.1445757037869</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>-10.29894358808815</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>54.10717404453629</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1.149549040369457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>134.9128083959701</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2.79785592256099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>90.03614762849955</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>8.997413276082666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>120.7492380253909</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>13.35932360633858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>280.896820570524</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>13.17767083472794</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>150.6999219800282</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>13.53017044209367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>226.5406721266822</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>13.90159111136969</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>95.90524628686219</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>-13.44308224957462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>54.10717404453629</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>-1.149549040369459</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>81.44198948248008</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>3.871071323322986</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>34</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>55.50208134650391</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>13.47505466201964</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>33</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>112.2038680587839</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>13.82242272777498</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>32</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>263.1569413751739</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>13.82964466368181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>31</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>129.3207537043945</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>13.32908934276823</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>30</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>208.8660367269037</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>13.56854416549072</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>29</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>125.642641388176</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>-12.77058366707499</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>28</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>134.9128083959701</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>-2.797855922560989</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>27</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>81.44198948248008</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>-3.871071323322987</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>26</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>70.36003083174874</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>6.148744178844002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>25</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>130.4671905305881</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>9.471052001463141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>24</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>9</v>
+      </c>
+      <c r="D49">
+        <v>240.3536776283722</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>13.830032778361</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>23</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>95.20760283584727</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>13.56091332565174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>171.9297824091265</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>13.96722650579315</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>21</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>145.9827487106895</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>-13.954770080657</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>20</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>90.03614762849955</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>-8.997413276082662</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>19</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>55.50208134650391</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>-13.47505466201963</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>18</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>70.36003083174874</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>-6.148744178844003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>17</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>66.11045580644067</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>12.14687913136072</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>16</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>9</v>
+      </c>
+      <c r="D57">
+        <v>208.1479543814655</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>13.8914332287931</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>15</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>66.41328635685213</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>7.348926107609257</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>14</v>
+      </c>
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>122.5800579802334</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>13.03920494357852</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>13</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>207.7145004863497</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>-13.67353460326496</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>12</v>
+      </c>
+      <c r="B61">
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>120.7492380253909</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>-13.35932360633858</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>11</v>
+      </c>
+      <c r="B62">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>112.2038680587839</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>-13.82242272777498</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>10</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>130.4671905305881</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>-9.471052001463139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>7</v>
+      </c>
+      <c r="D64">
+        <v>66.11045580644067</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>-12.14687913136072</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>160.3233118404126</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>13.02641312748611</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>114.3336892356768</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>-13.99737357115403</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>6</v>
+      </c>
+      <c r="B67">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>37.74488316826037</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>-12.98430819921355</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>352.3290649619132</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>-13.98870997069965</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>9</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>280.896820570524</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>-13.17767083472794</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>263.1569413751739</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>-13.82964466368181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>240.3536776283722</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>-13.830032778361</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <v>7</v>
+      </c>
+      <c r="D72">
+        <v>208.1479543814655</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>-13.8914332287931</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73">
+        <v>160.3233118404126</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>-13.02641312748611</v>
       </c>
     </row>
   </sheetData>
